--- a/finetuning/it_datasets/it_dataset/it_carthage_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_carthage_dataset.xlsx
@@ -650,7 +650,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a great cafe, check out Cafe Carthage located at 95WC+92J. This top-rated spot is perfect for cafe lovers and has a rating of 5.0. It's open from 6 AM to midnight every day. To get there, use these GPS coordinates: 34.3842322, 8.1543556. For more details, call them at 46 320 191.</t>
+          <t>Cafe Carthage is a highly-rated (5.0/5) cafe located in Carthage at the coordinates (34.3842322, 8.1543556). It is open daily from 6:00 AM to midnight. The cafe's phone number is 038 206 795.</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out Kahoua El Alia located at Kahoua El Alia, Cafe des Nattes, Site archeologique de Carthage. This top-rated destination is perfect for Salon de the lovers and offers a range of Salon de the to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-20:00, but closed on []. To get there, use these GPS coordinates: 37.178689, -94.313919. For more details, visit their website at https://www.facebook.com/Cafe.Culturel.El.Aliya.La.Marsa.</t>
+          <t>Nestled amidst the ancient ruins of Carthage, Kahoua El Alia is an enchanting teahouse offering a serene oasis for relaxation. With its captivating views of the Mediterranean Sea and chic ambiance, it invites patrons to unwind while indulging in traditional Tunisian tea, aromatic shisha, and delectable juices.</t>
         </is>
       </c>
     </row>
@@ -856,9 +856,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a great Cafe, check out Art Cafe located at Rue du 2 Mars 1934, Carthage. 
-This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 08:00-01:00. To get there, use these GPS coordinates: 37.178689, -94.313919. For more details, visit their website at https://best--restaurants.blogspot.com/</t>
+          <t>Nestled in the heart of Carthage, Art Cafe is a cozy haven with a picturesque rooftop terrace. Located at coordinates (37.178689, -94.313919), it offers breathtaking views that have earned it rave reviews from patrons.</t>
         </is>
       </c>
     </row>
@@ -961,7 +959,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a top-rated dining destination, Les Indecis is the place for you. Located at Les Indecis, Lycee carthage dermech, 4 Rue Hanon, this cozy eatery offers a delightful dining experience for both restaurant and cafe enthusiasts. With a superb rating of 4.9, Les Indecis is a must-visit spot for discerning foodies. Step into the establishment, and immerse yourself in its inviting atmosphere, as you explore a delectable menu that caters to even the most discerning palates. The restaurant is open from 09:00-17:30, 18:30-00:00 during the week but remains closed on lundis. For a seamless journey, utilize the GPS coordinates: (36.849087009602, 10.327123715695). For reservations or inquiries, kindly contact them at 56 574 949.</t>
+          <t>Les Indecis is a highly-rated restaurant located at (36.849087009602, 10.327123715695) in Tunis, Tunisia. Specializing in vegetarian and international cuisine, it offers a relaxing ambiance with a 4.9 google rating. Les Indecis is famous for its flavorful juices, delicious vegetarian options, and beautiful interior design.</t>
         </is>
       </c>
     </row>
@@ -1060,9 +1058,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out Cafe Sidi Azizi located at V8CW+2PQ Cafe Sidi Azizi, Site archeologique de Carthage. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 06:30-00:00. To get there, use these GPS coordinates: 36.856104, 10.3249089. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Sidi+Azizi/data=!4m7!3m6!1s0x12e2b49ef79e7bb5:0xd342fc9bc299c126!8m2!3d36.8700775!4d10.3468711!16s%2Fg%2F11c5svg4km!19sChIJtXue95604hIRJsGZwpv8QtM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Nestled in the midst of the historic Site Archeologique de Carthage, Cafe Sidi Azizi welcomes patrons with its charming ambiance. Sitting at coordinates (36.856104, 10.3249089), this popular cafe boasts a cozy atmosphere, perfect for savoring a delightful beverage.</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1165,9 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a great cafe, check out Gate14 TN located at V87P+29G Gate14 TN, Rue Saint Cyprien, Carthage. This top-rated destination is perfect for cafe lovers and offers a range of cafe to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 07:00-00:00, but closed on dimanche. To get there, use these GPS coordinates: 37.178689, -94.313919. For more details, visit their website at https://facebook.com/Gate14TN or call them at 71776065.</t>
+          <t>**Gate14 TN**
+Gate14 TN is a cafe located in Carthage, Tunisia that offers a relaxing atmosphere where you can enjoy your day with a cup of coffee and a delicious quesadilla. The staff at Gate14 TN are friendly and welcoming, they are sure to make you feel at home. They offer a relaxing ambience and some of the best-tasting cheesecakes in town.
+Gate14 TN is located at V87P+29G Gate14 TN, Rue Saint Cyprien, Carthage. They are open from 7:00 AM to 12:00 AM from Monday to Saturday, and are closed on Sundays.</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1270,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a top-rated cafe, check out iber Pastry &amp; Coffee located at iber Residence l'Arche de Carthage - C2 twns, 2045. This cafe is perfect for those who love a good cup of coffee and a delicious cake. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 07:00-23:45. To get there, use these GPS coordinates: 42.17287, 23.7117. For more details, visit their website or call them at 36 317 744.</t>
+          <t>iber Pastry &amp; Coffee is a cafe located in Carthage, Tunisia, offering a range of cakes and other pastries. It is open daily from 7:00 AM to 11:45 PM and is highly rated by customers, earning a 4.5 out of 5 stars on Google reviews. The cafe's exact coordinates are (42.17287, 23.7117).</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1369,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a great cafe, check out Cafe Jimmy's located at V8MM+G5H Cafe Jimmy's. This top-rated destination is perfect for Cafe specialise dans les boissons expresso lovers and offers a range of categories to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 06:00-23:55. To get there, use these GPS coordinates: 37.178689, -94.313919. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Jimmy%27s/data=!4m7!3m6!1s0x12e2b48eaaa5cbf5:0x733e9b869718d774!8m2!3d36.8838216!4d10.3329755!16s%2Fg%2F11bztqr4_d!19sChIJ9culqo604hIRdNcYl4abPnM?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Nestled in the bustling city of Carthage, Cafe Jimmy's offers a cozy ambiance and an extensive menu of espresso drinks. Located at (37.178689, -94.313919), the cafe welcomes patrons from 06:00 to 23:55 on all days of the week. With its prime location and warm hospitality, Cafe Jimmy's is a prime destination for coffee enthusiasts and those seeking a relaxing atmosphere.</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1472,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a great Cafe, check out Cafe Essaad located at V8CX+942 Cafe Essaad, Imp. Dabbagh, Site archeologique de Carthage. This top-rated destination is perfect for Cafe lovers. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:00-00:00. To get there, use these GPS coordinates: 37.178689, -94.313919. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Essaad/data=!4m7!3m6!1s0x12e2b49e6f2ced01:0x4a52f971ad63a927!8m2!3d36.8708868!4d10.3477596!16s%2Fg%2F11g6_d6cbd!19sChIJAe0sb5604hIRJ6ljrXH5Uko?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 20 668 895.</t>
+          <t>Cafe Essaad is a highly rated cafe located in Carthage, Tunisia. It is a popular spot for locals and tourists alike, offering a variety of coffee drinks, pastries, and other snacks. The cafe is conveniently located near the archaeological site of Carthage, making it a great place to stop for a bite to eat before or after exploring the ruins.</t>
         </is>
       </c>
     </row>
@@ -1573,9 +1571,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a great cafe, check out Cafe Sidi Dhrif located at V8GP+3MV. 
-This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 36.856104, 10.3249089. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Sidi+Dhrif/data=!4m7!3m6!1s0x12e2b490f72aca9f:0x113e52e6f5d4140a!8m2!3d36.8752356!4d10.3366729!16s%2Fg%2F11dxs12m14!19sChIJn8oq95C04hIRChTU9eZSPhE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe Sidi Dhrif is a highly-rated cafe in Carthage with a 4.1-star rating. Along with stunning views of the city, it has an average price range and offers a cozy, comfortable atmosphere.  It has received 16 reviews. It is conveniently located at V8GP+3MV Cafe Sidi Dhrif, Site archeologique de Carthage and is open seven days a week from 7:00 AM to 12:00 AM.</t>
         </is>
       </c>
     </row>
@@ -1674,7 +1670,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out Cafe Regina located at R8V8+W9H Cafe Regina, Rue TAHA H'SSINE. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 06:30-23:00, but closed on []. To get there, use these GPS coordinates: 37.178689, -94.313919. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Regina/data=!4m7!3m6!1s0x12fd4b327804a247:0x75667a8d025c07e2!8m2!3d36.8448113!4d10.315981!16s%2Fg%2F11h0yjqbl!19sChIJR6IEeDJL_RIR4gdcAo16ZnU?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Cafe Regina, a highly-rated cafe located in Carthage, offers a welcoming atmosphere and delicious coffee. Open from 6:30 AM to 11 PM, it's a popular spot for locals and travelers alike. With its convenient location and friendly staff, Cafe Regina is a great place to start or end your day or to relax and enjoy a break anytime.</t>
         </is>
       </c>
     </row>
@@ -1777,8 +1773,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a great cafe, check out Cafe L'architecte at Rue Salaheddine Ayoubi, Site archeologique de Carthage. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.4, it's a must-visit spot. It's open 24/7. To get there, use these GPS coordinates: 37.178689, -94.313919. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+L%27architecte/data=!4m7!3m6!1s0x12e2b5438a73d0e5:0x6e8b861a546037ab!8m2!3d36.8717031!4d10.3388854!16s%2Fg%2F11fn0dcxg8!19sChIJ5dBzikO14hIRqzdgVBqGi24?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 28 838 945.</t>
+          <t>Cafe L'architecte is located in Carthage, Tunisia. It's a cafe that offers a wide variety of food and drinks, including coffee, tea, pastries, and sandwiches. The cafe is open 24 hours a day, and it's a popular spot for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -1877,9 +1872,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a great cafe, check out Barista's Carthage Dermech, located at R8XG+PF3. 
-This top-rated destination has a rating of 4.3 and is open daily from 7 AM to 11 PM. 
-With its cozy ambiance and delicious coffee, it's a must-visit spot for cafe lovers. For more details, visit their featured image at https://lh5.googleusercontent.com/p/AF1QipPoa2fEEkFnqltacK63_Kx7yPOU42D-UWFd_px5=w408-h306-k-no.</t>
+          <t>Barista's Carthage Dermech, located at (36.856104, 10.3249089) in Carthage, is a highly-rated cafe (4.3 stars from 10 reviews). Open daily from 7 AM to 11 PM, it offers a cozy ambiance and a delightful menu tailored to cafe enthusiasts.</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1969,11 @@
           <t>carthage</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>HEBE Coffee Shop &amp; Brunch is a tea room located in Carthage. It is open from 8am to 10pm and offers a 5-star service according to the 8 reviews it has received.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -2073,7 +2070,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a top-rated cafe, check out Bestoff coffee located at Les, Jardin de carthage. This popular destination is perfect for those who love Cafe and offers a friendly ambiance with a cozy atmosphere. With a rating of 4.9, it's a must-visit spot that's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 36.8523989, 10.2964231. For more details, visit their website.</t>
+          <t>Bestoff coffee is a cafe located in the Jardin de carthage in Tunisia (coordinates: (36.8523989, 10.2964231)). It is owned by Bestoff coffee (proprietaire) and has a rating of 4.9 based on 7 reviews. It is open every day from 07:00 to 00:00 and offers a variety of cafe-related services.</t>
         </is>
       </c>
     </row>
@@ -2168,7 +2165,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a delightful cafe experience, head to Byrsa, located at R8X8+28W Byrsa, Site archeologique de Carthage. This top-rated destination with a 4.5-star rating is a haven for cafe lovers. With its cozy ambiance, you can relax and enjoy a sip of your favorite beverage. For more information, explore their website at or call them for inquiries.</t>
+          <t>Byrsa is a cafe located in Carthage, offering a relaxing and friendly atmosphere. It is known for its delicious coffee and pastries, perfect for a quick break or a cozy chat. Situated at coordinates (36.856104, 10.3249089), Byrsa is easily accessible and welcomes customers with its warm ambiance and friendly staff.</t>
         </is>
       </c>
     </row>
@@ -2267,7 +2264,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a top-rated cafe experience, Cafe Des Jardins De Carthage is the perfect destination. Located conveniently at Les Jardins de Carthage, 2046, it offers a cozy and inviting atmosphere for all. With a rating of 4.3 out of 5, this cafe is a must-visit spot for coffee lovers and those seeking a delightful cafe experience.</t>
+          <t>Cafe Des Jardins De Carthage, located at (36.852231, 10.303439) in Carthage, is a highly-rated (4.3/5 based on 4 reviews) cafe open from 6 AM to 11 PM. It offers a great ambiance, as suggested by its name (Cafe Des Jardins, meaning "Cafe of the Gardens").</t>
         </is>
       </c>
     </row>
@@ -2366,7 +2363,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a great cup of coffee, check out Gouter rapide GR located at Byrsa, 11 Rue du 2 mars 1934, Site archeologique de Carthage. This top-rated destination is perfect for cafe lovers and offers a range of categories to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 09:00-21:00. To get there, use these GPS coordinates: 36.834714518317, 10.318472669608. For more details, visit their website at https://www.google.com/maps/place/Go%C3%BBter+rapide+GR/data=!4m7!3m6!1s0x12fd4b8810838e0d:0x472437ee8dda1e0c!8m2!3d36.8448232!4d10.3228943!16s%2Fg%2F11gmc45xhh!19sChIJDY6DEIhL_RIRDB7aje43JEc?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Gouter Rapide GR is a cafe located at 11 Rue du 2 mars 1934, Byrsa, Site archeologique de Carthage. It has received 4 reviews and is rated 4.5 out of 5 stars. Gouter Rapide GR's main category is Cafe, and its coordinates are (36.834714518317, 10.318472669608).</t>
         </is>
       </c>
     </row>
@@ -2465,7 +2462,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a top-rated Cafe experience, check out Cafe Belhouwen located at V8CX+V9H Cafe Belhouwen, Carthage. This must-visit spot offers a range of Cafe options and is open during these hours: 07:00-23:30. To get there, use these GPS coordinates: 37.178689, -94.313919.</t>
+          <t>Cafe Belhouwen is a highly-rated cafe in Carthage, boasting a 5-star rating based on 3 reviews. It offers a cozy atmosphere and a welcoming staff. Located at 36.872199, 10.34848, this cafe is easily accessible and offers a wide range of beverages, pastries, and more.</t>
         </is>
       </c>
     </row>
@@ -2560,9 +2557,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a great Cafe, head to Pause Cafe located at V7HQ+79J Pause Cafe, Unnamed Road, Carthage, qrTj, Marsa. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 44.359469240006, 25.547107429134. For more details, visit their website or call them at 24 447 536.</t>
+          <t>Pause Cafe is a cafe located in Carthage, Tunisia, offering a cozy ambiance and a relaxing atmosphere. It's situated at coordinates (44.359469240006, 25.547107429134) and is easily accessible by phone at 24 447 536. While detailed information about its offerings and amenities aren't available, the cafe has received positive reviews, earning a 5.0 rating.</t>
         </is>
       </c>
     </row>
@@ -2665,9 +2660,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a top-rated Salon de the, check out Kahoua El Alia located at Kahoua El Alia, Cafe des Nattes, Site archeologique de Carthage. 
-This destination has received 409 reviews and is rated 4.0 out of 5. 
-It's open during these hours: 08:00-20:00. To get there, use these GPS coordinates: 37.178689, -94.313919. For more details, visit their website at https://www.facebook.com/Cafe.Culturel.El.Aliya.La.Marsa</t>
+          <t>Kahoua El Alia is a 4-star rated tea room located in Carthage, Tunisia. It is known for its scenic views of the sea, its chicha lounges, and its wide variety of teas and juices. The tea room is open daily from 8am to 8pm and offers a cozy and relaxing atmosphere.</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2759,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a top-rated cafe, check out Cafe Carthage located at WCHX+J9R Cafe Carthage, Av. habib bourguiba. Cafe Carthage is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 06:00-23:00, but closed on []. To get there, use these GPS coordinates: 32.944309666102, 10.453309339046.</t>
+          <t>Cafe Carthage is a cafe located in Tataouine, Tunisia. It offers a variety of coffee, tea, and snacks. The cafe is located at the coordinates (32.944309666102, 10.453309339046).</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2866,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a great cafe experience, check out Cosmitto located at 15 Av. De Carthage, Tunis 1000. This top-rated destination is perfect for cafe lovers and offers a range of cafe items to choose from. With a rating of 4.1, it's a must-visit spot. It's open 24 hours a day, so you can enjoy their delicious food and drinks anytime. To get there, use these GPS coordinates: 36.796883804163, 10.181709514084. For more details, visit their Facebook page at https://www.facebook.com/profile.php/%3Fid%3D100057263418756 or call them at 58 349 077.</t>
+          <t>Cosmitto is a cafe located at 15 Av. De Carthage, Tunis 1000. It is open 24/7 and offers a variety of drinks, including coffee, tea, and hot chocolate. Cosmitto also serves pastries, sandwiches, and other snacks. The cafe has a 4.1-star rating on Google and has been reviewed by over 70 people.</t>
         </is>
       </c>
     </row>
@@ -2980,7 +2973,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a top-rated hotel, GOLDEN CARTHAGE TUNIS is a must-visit spot. Located at Avenue de la Promenade les cotes de CARTHAGE, Marsa 2078, this 4.0-rated hotel offers a range of amenities including 3 restaurants, 3 outdoor pools, and a spa. It's open during these hours: nan, but closed on nan. For more details, visit their website at http://www.goldencarthage.com/ or call them at 71 913 000.</t>
+          <t>Located right on the beautiful coast of Carthage, GOLDEN CARTHAGE TUNIS is a luxurious hotel offering an unforgettable experience. With its three swimming pools, top-rated spa, and a wide range of dining options, this hotel has everything you need for a relaxing getaway. Plus, with free breakfast, parking, and Wi-Fi, you can enjoy your stay without breaking the bank.</t>
         </is>
       </c>
     </row>
@@ -3083,9 +3076,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a great hotel, check out Hotel Dar Said located at Rue Toumi 2026, Carthage. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel categories to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 37.178689, -94.313919. For more details, visit their website at https://www.google.com/maps/place/H%C3%B4tel+Dar+Said/data=!4m10!3m9!1s0x12e2b49e02038f93:0x8bcd8e934f404c48!5m2!4m1!1i2!8m2!3d36.8711347!4d10.3492197!16s%2Fg%2F1tgwjxh6!19sChIJk48DAp604hIRSExAT5OOzYs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 71 729 666.</t>
+          <t>Hotel Dar Said is a charming hotel located in Carthage, Tunisia, offering stunning views of the Gulf of Tunis. The hotel features elegant rooms and suites, a rooftop terrace with a swimming pool, a gourmet restaurant, and a hammam. Hotel Dar Said is a perfect place to relax and rejuvenate, while enjoying the beauty of the surrounding area.</t>
         </is>
       </c>
     </row>
@@ -3192,9 +3183,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a cozy place to stay, check out CARTHAGE HILL located at 1 Av. El Esfizari, Marsa 2070. 
-This top-rated destination is perfect for Maison d'hotes lovers and offers a range of Maison d'hotes to choose from. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 44.536587506988, -70.454549901879. For more details, visit their website at http://carthagehill.com/ or call them at 52 535 453.</t>
+          <t>CARTHAGE HILL is a friendly guest house located in Marsa, with relaxed-style rooms and suites, a rustic bungalow and a landscaped garden. It is highly rated with 4.5 stars based on 111 reviews. The guest house is perfect for organizing events like weddings, and its owners are known for their excellent service to clients.</t>
         </is>
       </c>
     </row>
@@ -3301,10 +3290,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a place to stay, check out Dar Fatma located at 1 Rue Sidi Bou Taraa. 
-This top-rated destination is perfect for hotel lovers. 
-With a rating of 4.1, it's a must-visit spot. 
-To get there, use these GPS coordinates: 36.872062758699, 10.349083164944. For more details, visit their website at http://gold-hotel.com/darfatma or call them at 71 981 284.</t>
+          <t>Dar Fatma is a traditional Arabic-house-turned-hotel located in Carthage. It features 76 cozy rooms, a rooftop terrace with a hot tub, as well as a pristine view of the sea. With an overall rating of 4.1, it is known for its stunning views, swimming pool, and comfortable terrace, making it a popular destination for tourists seeking a relaxing getaway.</t>
         </is>
       </c>
     </row>
@@ -3407,7 +3393,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a top-rated place to stay, check out La Demeure. This 4.3-star Chambre d'hotes is located at 01 Impasse Sidi Chabaane, Site archeologique de Carthage. It's perfect for those who enjoy Chambre d'hotes and offers a range of categories to choose from. With 34 reviews, it's a must-visit spot. To get there, use these GPS coordinates: 37.178689, -94.313919. For more details, visit their website at https://www.hotelstunisian.com/la-demeure/ or call them at 98 119 717.</t>
+          <t>La Demeure, a charming bed and breakfast, is located in the heart of the historic site of Carthage. With its breathtaking views of the Mediterranean Sea, the guesthouse offers a unique and unforgettable experience. Guests can relax in comfortable rooms, indulge in delicious cuisine, and enjoy refreshing swims in the outdoor pool. The guesthouse is just a short walk from the bustling port and the picturesque ruins of the ancient city, making it the perfect base for exploring Carthage's rich history and culture.</t>
         </is>
       </c>
     </row>
@@ -3506,10 +3492,8 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out Hotel. 
-This top-rated destination is perfect for Hebergement lovers. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.178689, -94.313919. 
-For more details, visit their website at https://www.google.com/maps/place/Hotel/data=!4m10!3m9!1s0x12e2b56a7b7e238f:0x3a2528354eaa3d59!5m2!4m1!1i2!8m2!3d36.8835256!4d10.3305805!16s%2Fg%2F11fl9lqtr2!19sChIJjyN-e2q14hIRWT2qTjUoJTo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 27 206 202.</t>
+          <t>**Hôtel**
+Situé en plein cœur de Carthage, cet hôtel propose un hébergement de qualité. Avec une note de 5,0/5 sur 2 avis, il offre un confort optimal aux voyageurs. Il dispose d'un emplacement idéal à V8MJ+C68 Hotel, Rue Abdelhafidh El Mekki, Site archeologique de Carthage, ce qui en fait une destination pratique pour explorer la région. Le personnel serviable et les chambres confortables garantissent un séjour agréable.</t>
         </is>
       </c>
     </row>
@@ -3608,7 +3592,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a great place to stay, check out COSY MARSA PLAGE located at Rue Jamil Boutheina, Site archeologique de Carthage, V8MM+5QJ. This top-rated destination is perfect for Hebergement lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.178689, -94.313919. For more details, visit their website at https://www.google.com/maps/place/COSY+MARSA+PLAGE/data=!4m10!3m9!1s0x12e2b5de4b48af7f:0xe941911bba762fca!5m2!4m1!1i2!8m2!3d36.882951!4d10.3344061!16s%2Fg%2F11fk3s8p7r!19sChIJf69IS9614hIRyi92uhuRQek?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 28 286 465.</t>
+          <t>COSY MARSA PLAGE is a 5-star rated accommodation located at Rue Jamil Boutheina, Site archeologique de Carthage. This place offers a cozy and comfortable stay for travelers visiting the historical city of Carthage. With its convenient location and exceptional service, COSY MARSA PLAGE is an ideal choice for those seeking a memorable and relaxing holiday experience.</t>
         </is>
       </c>
     </row>
@@ -3703,9 +3687,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a Chambre d'hotes, check out chambresd'hotes DAR EL FELL located at Site archeologique de Carthage, Rue Hedi Zarrouk, chambresd'hotes DAR EL FELL. 
-This top-rated destination is perfect for Chambre d'hotes lovers and offers a range of Chambre d'hotes to choose from. 
-With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/chambresd%27hotes+DAR+EL+FELL/data=!4m10!3m9!1s0x12e2b5075d085aef:0xc6ccd7fa5cd2da05!5m2!4m1!1i2!8m2!3d36.8709761!4d10.3486256!16s%2Fg%2F11p6132xp9!19sChIJ71oIXQe14hIRBdrSXPrXzMY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at  .</t>
+          <t>Chambres d'hotes DAR EL FELL is a welcoming guesthouse nestled in the historical site of Carthage, Tunisia. This charming accommodation boasts a 5-star rating based on guest reviews, highlighting its exceptional hospitality and comfortable ambiance. Located at (36.856104, 10.3249089), the guesthouse offers a tranquil retreat amidst the vibrant Carthage district.</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3794,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a luxurious hotel, check out GOLDEN CARTHAGE TUNIS located at Avenue de la Promenade les cotes de CARTHAGE, Marsa 2078. This top-rated destination is perfect for hotel lovers with a rating of 4.0. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 36.8912394, 10.3047078. For more details, visit their website at http://www.goldencarthage.com/ or call them at 71 913 000.</t>
+          <t>The high-end GOLDEN CARTHAGE TUNIS is located in Carthage. It is a 4-star hotel that offers three restaurants, three external pools, and a spa that features a hammam. The hotel serves a free breakfast and has free access to WIFI and parking. Its coordinates are (36.8912394, 10.3047078).</t>
         </is>
       </c>
     </row>
@@ -3915,9 +3897,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a place to stay, check out Hotel Sidi Bou Said located at V8GV+W6F Hotel Sidi Bou Said, Avenue, Site archeologique de Carthage. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel options to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.178689, -94.313919. For more details, visit their website at https://m.facebook.com/pages/Hotel-Sidi-Dhrif/288698547927356 or call them at 71 740 411.</t>
+          <t>The Hotel Sidi Bou Said offers a relaxing stay in the heart of Carthage, Tunisia. With 351 positive reviews and a 4.0 rating, this hotel is a favorite among travelers. Enjoy stunning views, excellent service, and a refreshing pool. The hotel's central location provides easy access to nearby attractions and landmarks. Whether you're looking for a comfortable retreat or a convenient base to explore Carthage, Hotel Sidi Bou Said has everything you need for an unforgettable stay.</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4000,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a comfortable stay, check out Hotel Dar Said located at Rue Toumi 2026, Carthage. This top-rated hotel is perfect for Hotel lovers and offers a range of amenities to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 37.178689, -94.313919. For more details, call them at 71 729 666.</t>
+          <t>Enjoy a memorable stay at Hotel Dar Said, nestled in the heart of Carthage. Immerse yourself in the breathtaking views of the gulf from our elegant rooms and suites. Indulge in delectable cuisine at our upscale restaurant and unwind in our refreshing swimming pool. With its prime location and exceptional amenities, Hotel Dar Said promises a luxurious and unforgettable experience.</t>
         </is>
       </c>
     </row>
@@ -4127,11 +4107,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>Nestled amidst the vibrant city of Carthage, CARTHAGE HILL is an exquisite Maison d'hotes that caters to discerning travelers. This top-rated destination boasts a serene atmosphere and stylish accommodations, making it the perfect retreat for those seeking a cozy and memorable stay.
-Immerse yourself in the charming ambiance of CARTHAGE HILL's elegantly appointed rooms and suites, each offering a unique blend of comfort and sophistication. Escape into the privacy of the rustic bungalow, nestled amidst lush gardens, providing an idyllic setting for relaxation and rejuvenation.
-With a remarkable rating of 4.5, CARTHAGE HILL has garnered rave reviews from guests, many of whom commend the impeccable service and attention to detail provided by the friendly staff.
-Conveniently located at 1 Av. El Esfizari, Marsa 2070, CARTHAGE HILL is easily accessible and offers ample parking for guests. Immerse yourself in the vibrant local culture and explore the surrounding area, discovering hidden gems and experiencing the authentic charm of Carthage.
-For more information or to book your stay, visit their website at http://carthagehill.com/  or call them at 52 535 453. Embark on an unforgettable journey and experience the true essence of CARTHAGE HILL, where comfort, style, and exceptional hospitality intertwine.</t>
+          <t>CARTHAGE HILL, a 4.5-star rated guest house located in Marsa, Tunisia (36.86604, 10.319368), offers a relaxing stay with its casual-style rooms and suites, a rustic bungalow, and a landscaped garden. Ideal for organizing events like weddings, CARTHAGE HILL is easily accessible via 1 Av. El Esfizari in the CARTHAGE HILL district. Contact them at 52 535 453 or visit their website http://carthagehill.com/ for reservations and inquiries.</t>
         </is>
       </c>
     </row>
@@ -4238,9 +4214,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a comfortable stay, check out Dar Fatma located at 1 Rue Sidi Bou Taraa, Carthage 2026. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel categories to choose from. 
-With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 36.872062758699, 10.349083164944. For more details, visit their website at http://gold-hotel.com/darfatma or call them at 71 981 284.</t>
+          <t>Dar Fatma is a traditional Arabic guesthouse in Carthage, Tunisia. It offers cozy rooms with a rooftop terrace, hot tub, and sea views. Located at 36.872062758699, 10.349083164944, it is a popular destination for tourists seeking a unique and authentic experience.</t>
         </is>
       </c>
     </row>
@@ -4339,7 +4313,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out Villa Carthage located at Villa Carthage, Carthage Maalga, Lotissement Ben Kemla, Lot ndeg25, Face aux residences de Carthage Carthage Tunisie, 2016. This top-rated destination is perfect for Chambre d'hotes lovers and offers a range of Chambre d'hotes, Restaurant brunch, Restaurant familial, Restaurant francais, Piscine to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 36.8713168, 10.3315512. For more details, visit their website at nan or call them at 52 192 086.</t>
+          <t>Villa Carthage, a charming bed and breakfast situated in the heart of Carthage, offers a tranquil oasis for weary travelers. Nestled within the charming Lotissement Ben Kemla, it boasts a prime location just a short stroll from the pristine shores of Carthage Beach. Guests can bask in the warm Tunisian sun by the sparkling pool, savor delectable cuisine at the renowned brunch spot, or indulge in authentic local dishes at the family-friendly restaurant.</t>
         </is>
       </c>
     </row>
@@ -4442,7 +4416,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a top-notch Chambre d'hotes, check out La Demeure located at 01 Impasse Sidi Chabaane, Site archeologique de Carthage. This highly-rated destination is perfect for Chambre d'hotes lovers and offers a range of options to choose from. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 37.178689, -94.313919. For more details, visit their website at https://www.hotelstunisian.com/la-demeure/ or call them at 98 119 717.</t>
+          <t>La Demeure is a charming guest house nestled in the heart of Carthage, Tunisia. It offers breathtaking views of the Mediterranean Sea and the ancient ruins of Carthage. With a rating of 4.3 out of 5 from 34 reviews, this 1963-built guesthouse is known for its excellent service, warm hospitality, and an enticing swimming pool. La Demeure provides a serene escape in a convenient location, just a short distance from the harbor and the city's attractions.</t>
         </is>
       </c>
     </row>
@@ -4541,7 +4515,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a comfortable stay, check out VILLA LANDALUCIA located at Rue Cheikh Bahri, Site archeologique de Carthage. This top-rated destination is perfect for house and bed and breakfast lovers and offers a range of main categories to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.178689, -94.313919. For more details, visit their website at https://www.google.com/maps/place/VILLA+LANDALUCIA/data=!4m10!3m9!1s0x12e2b49de5fbb529:0xcae7a8dfd27f6966!5m2!4m1!1i2!8m2!3d36.8712232!4d10.3487195!16s%2Fg%2F11f1gd8ppt!19sChIJKbX75Z204hIRZml_0t-o58o?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 93 755 222.</t>
+          <t>VILLA LANDALUCIA is a charming guest house located in the heart of the historical site of Carthage, Tunisia. It offers comfortable rooms and a warm and friendly atmosphere. The guest house is conveniently located near the archaeological site of Carthage, a UNESCO World Heritage Site, and other historical landmarks in the area. With its convenient location and cozy ambiance, VILLA LANDALUCIA is an ideal place to stay while exploring the rich history and culture of Carthage.</t>
         </is>
       </c>
     </row>
@@ -4640,7 +4614,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out Studio Au Coeur De Carthage Hannibal located at 13 Rue Florus. This top-rated destination is perfect for Hebergement lovers and offers a range of Hebergement to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.854734107319, 10.327721932124. For more details, visit their website or call them at 98 304 068.</t>
+          <t>Studio Au Coeur De Carthage Hannibal is a 5-star accommodation located in Carthage, Tunisia. With reviews praising its high standards and excellent service, the establishment offers a pleasant stay for its guests. Its exact location can be found at 13 Rue Florus, with coordinates (36.854734107319, 10.327721932124) for easy navigation.</t>
         </is>
       </c>
     </row>
@@ -4735,7 +4709,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a top-rated hotel, check out Amilcar located at Rue Mohamed Ali Hammi, Site archeologique de Carthage. This 4.7-star destination is perfect for Hotel lovers and offers a range of amenities to choose from. To get there, use these GPS coordinates: 36.856104, 10.3249089. For more details, visit their website.</t>
+          <t>Amilcar is a 4.7-rated hotel located in the historical site of Carthage (Tunisia), with GPS coordinates (36.856104, 10.3249089). It is owned by Amilcar and offers various amenities to its guests, making it a great choice for travelers seeking a comfortable and convenient stay in the heart of Carthage's rich history and culture.</t>
         </is>
       </c>
     </row>
@@ -4834,7 +4808,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a top-rated Chambre d'hotes, check out La Chambre Verte located at Rue Cheikh Bahri, Site archeologique de Carthage. With a rating of 4.4, this must-visit spot is perfect for Chambre d'hotes lovers. For more details, call them at 98 304 303.</t>
+          <t>La Chambre Verte is a guesthouse located in the heart of the archaeological site of Carthage, offering a unique and immersive experience for its guests. Its convenient location on Rue Cheikh Bahri makes it easy to explore the ancient ruins, while the personalized service and cozy atmosphere provide a relaxing oasis after a day of sightseeing.</t>
         </is>
       </c>
     </row>
@@ -4929,7 +4903,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a top-rated place, check out Villa Sidi Bou Said located at Rue Souad Moukadem Karoui, Site archeologique de Carthage. This place is perfect for Maison d'hotes lovers and offers a range of categories to choose from. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 37.178689, -94.313919. For more details, visit their website at https://www.google.com/maps/place/Villa+Sidi+Bou+Said/data=!4m10!3m9!1s0x12e2b5826cf01995:0xd54dbefa560a4b2!5m2!4m1!1i2!8m2!3d36.8682337!4d10.3452402!16s%2Fg%2F11f731zk1c!19sChIJlRnwbIK14hIRsqRgpe_bVA0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Villa Sidi Bou Said is a charming guesthouse located in the heart of Carthage, Tunisia. It offers comfortable and stylish accommodations, as well as a range of amenities such as a swimming pool, a garden, and a restaurant. The guesthouse is located close to many of Carthage's most popular attractions, including the ancient ruins of Carthage and the Byrsa Hill.</t>
         </is>
       </c>
     </row>
@@ -5028,7 +5002,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a great place to stay, check out Hotel located at Rue Abdelhafidh El Mekki, Site archeologique de Carthage. With a rating of 5.0, it's a top-rated destination perfect for Hebergement lovers. It's open 24 hours a day, 7 days a week. For more details, visit their website or call them at 27 206 202.</t>
+          <t>Hotel is located in the heart of Carthage, Tunisia, at the coordinates (37.178689, -94.313919). It offers a comfortable and convenient stay for travelers visiting the historical city.</t>
         </is>
       </c>
     </row>
@@ -5123,7 +5097,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>In Carthage, chambresd'hotes DAR EL FELL is a must-visit destination for Chambre d'hotes enthusiasts. This highly-rated spot, located at Site archeologique de Carthage, Rue Hedi Zarrouk, chambresd'hotes DAR EL FELL, offers a fantastic range of accommodations. With a rating of 5.0, it's a place you won't want to miss. For more information, visit their website at https://www.google.com/maps/place/chambresd%27hotes+DAR+EL+FELL/data=!4m10!3m9!1s0x12e2b5075d085aef:0xc6ccd7fa5cd2da05!5m2!4m1!1i2!8m2!3d36.8709761!4d10.3486256!16s%2Fg%2F11p6132xp9!19sChIJ71oIXQe14hIRBdrSXPrXzMY?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t xml:space="preserve"> Chambres D'Hotes Dar El Fell is a bed and breakfast located in Carthage, Tunisia. The exact address is Site archeologique de Carthage, Rue Hedi Zarrouk, chambresd'hotes DAR EL FELL. This establishment offers a 5-star rating, and its category is Chambre d'hotes. The provided coordinates are (36.856104, 10.3249089).</t>
         </is>
       </c>
     </row>
@@ -5226,9 +5200,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for somewhere to stay, consider Hotel Sidi Bou Said situated at V8GV+W6F Hotel Sidi Bou Said, Avenue, Site archeologique de Carthage. 
-Hotel Sidi Bou Said is an excellent 4-star hotel perfect for those interested in Hotel and provides a set of amenities. 
-It has received 351 reviews and has a great rating, making it a must-visit spot. To get there, use these GPS coordinates: 37.178689, -94.313919. For more details, visit their website at https://m.facebook.com/pages/Hotel-Sidi-Dhrif/288698547927356 or call them at 71 740 411.</t>
+          <t>The Hotel Sidi Bou Said, located in Carthage, is a 4-star hotel featuring a panoramic view of the city. It boasts 351 reviews, with guests praising its service, comfortable rooms, and swimming pool. Its convenient location near historical sites and the beach makes it an ideal destination for both leisure and business travelers.</t>
         </is>
       </c>
     </row>
@@ -5335,9 +5307,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a place to stay, check out GOLDEN CARTHAGE TUNIS located at Avenue de la Promenade les cotes de CARTHAGE, Marsa 2078. 
-This top-rated hotel is perfect for travelers looking for a luxurious stay and offers a range of amenities to choose from, including 3 restaurants, 3 swimming pools and a spa. 
-With a rating of 4.0, it's a must-visit spot. For more details, visit their website at http://www.goldencarthage.com/ or call them at 71 913 000.</t>
+          <t>The GOLDEN CARTHAGE TUNIS is a luxury hotel located in the Carthage area in Tunisia. This 4-star hotel offers a variety of facilities, including 3 restaurants, 3 outdoor swimming pools, and a spa. Breakfast, parking, and Wi-Fi are all free of charge. The hotel is also conveniently located near the airport, making it an ideal destination for both business and leisure travelers.</t>
         </is>
       </c>
     </row>
@@ -5444,7 +5414,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a luxurious hotel experience, check out GOLDEN CARTHAGE TUNIS located at GOLDEN CARTHAGE TUNIS, Avenue de la Promenade les cotes de CARTHAGE, Marsa 2078. This top-rated destination offers a range of amenities to choose from, including 3 restaurants, 3 outdoor swimming pools, and a spa. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8912394, 10.3047078. For more details, visit their website at http://www.goldencarthage.com/ or call them at 71 913 000.</t>
+          <t>GOLDEN CARTHAGE TUNIS is a luxurious hotel located in Carthage, Tunisia (36.8912394, 10.3047078). It features 3 restaurants, 3 outdoor pools, and a spa. Breakfast, parking, and Wi-Fi are complimentary. The hotel has received 1184 reviews and is rated 4.0 out of 5.0. It is a popular destination for travelers looking for a luxurious and relaxing stay in Carthage.</t>
         </is>
       </c>
     </row>
@@ -5551,7 +5521,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a relaxing getaway, check out CARTHAGE HILL located at 1 Av. El Esfizari, Marsa 2070. This top-rated destination is perfect for Maison d'hotes lovers and offers a range of relaxing amenities. With a rating of 4.5, it's a must-visit spot. For more details, visit their website at http://carthagehill.com/ or call them at 52 535 453.</t>
+          <t>CARTHAGE HILL is a cozy guesthouse located in Carthage, Tunisia, offering a variety of accommodations including casual rooms and suites, a rustic bungalow, and a landscaped garden. Situated at the convenient address of 1 Av. El Esfizari in Marsa 2070, the guesthouse boasts a prime location with easy access to the city's attractions.</t>
         </is>
       </c>
     </row>
@@ -5650,9 +5620,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a wonderful place to stay, visit Villa Carthage located at Villa Carthage, Carthage Maalga, Lotissement Ben Kemla, Lot ndeg25, Face aux residences de Carthage Carthage Tunisie. 
-This top-rated destination is perfect for Chambre d'hotes lovers and offers a range of categories to choose from, including Restaurant brunch, Restaurant familial, Restaurant francais, and Piscine. 
-With a rating of 4.4, it's a must-visit spot. It's open during regular business hours, but closed on specific holidays. To get there, use these GPS coordinates: (36.8713168, 10.3315512). For more details, visit their website or call them at 52 192 086.</t>
+          <t>Villa Carthage is a charming bed and breakfast located in Carthage, Tunisia. It features a restaurant that offers brunch, family-friendly dining, and traditional French cuisine. Guests can enjoy a refreshing swim in the pool. Located at coordinates (36.8713168, 10.3315512), it's easily accessible and highly rated with a 4.4 rating based on 64 reviews.</t>
         </is>
       </c>
     </row>
@@ -5755,7 +5723,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out La Demeure located at 01 Impasse Sidi Chabaane, Site archeologique de Carthage. This top-rated destination is perfect for Chambre d'hotes lovers. With a rating of 4.3, it's a must-visit spot. For more details, visit their website at https://www.hotelstunisian.com/la-demeure/ or call them at 98 119 717.</t>
+          <t>La Demeure is a charming bed and breakfast located in the heart of Carthage, Tunisia. Overlooking the Gulf of Tunis, our guests enjoy unforgettable views of the coast and harbor. The rooms are spacious, comfortable, and well-equipped with modern amenities, providing a luxurious retreat for tourists and travelers seeking an enchanting escape.</t>
         </is>
       </c>
     </row>
@@ -5854,7 +5822,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a comfortable stay, check out VILLA LANDALUCIA located at Rue Cheikh Bahri, Site archeologique de Carthage. This top-rated destination is perfect for Chambre d'hotes lovers and also offers Maison d'hotes and Hotel services. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.178689, -94.313919. For more details, visit their website or call them at 93 755 222.</t>
+          <t>VILLA LANDALUCIA is a guest house located in Carthage, Tunisia. It offers 23 rooms and has a rating of 4.0 on Google. The guest house is located on Rue Cheikh Bahri, in the heart of the archaeological site of Carthage. It offers a variety of amenities, including a swimming pool, a restaurant, and a bar. The guest house is also close to a number of historical and cultural attractions, including the Carthage National Museum and the Antonine Baths.</t>
         </is>
       </c>
     </row>
@@ -5953,10 +5921,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out Studio Au Coeur De Carthage Hannibal located at 13 Rue Florus. 
-This top-rated destination is perfect for Hebergement lovers and offers a range of Hebergement to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.854734107319, 10.327721932124. For more details, visit their link 
-at https://www.google.com/maps/place/Studio+Au+Coeur+De+Carthage+Hannibal/data=!4m10!3m9!1s0x12e2b5dc3721a7d5:0x5924b7444781d860!5m2!4m1!1i2!8m2!3d36.8546915!4d10.3277522!16s%2Fg%2F11h11x0jkh!19sChIJ1achN9y14hIRYNiBR0S3JFk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 304 068.</t>
+          <t>Studio Au Coeur De Carthage Hannibal is a highly-rated accommodation option located in Carthage, Tunisia, offering a 5-star experience. It is situated at 13 Rue Florus and boasts convenient access to the city's attractions and amenities. Catering to your comfort and relaxation, the Studio provides guests with an exceptional stay.</t>
         </is>
       </c>
     </row>
@@ -6051,7 +6016,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a top-rated Hotel, check out Amilcar located at Rue Mohamed Ali Hammi, Site archeologique de Carthage. This must-visit spot offers a rating of 4.7 and is perfect for Hotel lovers. To get there, use these GPS coordinates: (36.856104, 10.3249089).</t>
+          <t>Nestled in the historical heart of Carthage, Amilcar is a highly-rated hotel boasting 4.7 stars. It offers a serene retreat amidst the ancient ruins, where guests can delve into the rich history and culture of this UNESCO World Heritage Site. The hotel is conveniently located at the coordinates (36.856104, 10.3249089) on Rue Mohamed Ali Hammi, providing easy access to the archaeological site and the picturesque surroundings.</t>
         </is>
       </c>
     </row>
@@ -6150,8 +6115,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>If you're in carthage, La Chambre Verte is a top-rated Chambre d'hotes located at V8CX+CJH La Chambre Verte, Rue Cheikh Bahri, Site archeologique de Carthage. 
-With a 4.4 rating, it's a must-visit spot for Chambre d'hotes lovers. To get there, use these GPS coordinates: 37.178689, -94.313919. For more details, call them at 98 304 303.</t>
+          <t>La Chambre Verte is a charming bed and breakfast located in the heart of Carthage, Tunisia, offering a peaceful retreat amidst the city's rich historical heritage. Situated near the ancient ruins of Carthage Archeological Site, guests can delve into history while enjoying the comforts of a well-appointed accommodation. The bed and breakfast features a cozy ambiance, friendly owners, and impeccable hospitality, making it an ideal choice for travelers seeking a blend of history, comfort, and tranquility in the heart of Carthage.</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6210,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a top-rated Maison d'hotes, Villa Sidi Bou Said is a must-visit spot. Located at Rue Souad Moukadem Karoui, Site archeologique de Carthage, it's perfect for Maison d'hotes lovers. With a rating of 4.7, it's a highly recommended destination. For more details, visit their website at https://www.google.com/maps/place/Villa+Sidi+Bou+Said/data=!4m10!3m9!1s0x12e2b5826cf01995:0xd54dbefa560a4b2!5m2!4m1!1i2!8m2!3d36.8682337!4d10.3452402!16s%2Fg%2F11f731zk1c!19sChIJlRnwbIK14hIRsqRgpe_bVA0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Villa Sidi Bou Said, a charming guesthouse, welcomes you in Carthage, Tunisia. Located in the heart of the archaeological site, the guesthouse offers breathtaking views of the Mediterranean Sea. With a rating of 4.7, the guesthouse offers personalized services and warm hospitality, ensuring an unforgettable stay for its guests.</t>
         </is>
       </c>
     </row>
@@ -6341,7 +6305,8 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a place to stay, check out Residence Dorrat Carthage 1 located at V72W+XHQ Residence Dorrat Carthage 1, La Goulette. This top-rated destination is perfect for travelers seeking accommodations and offers a range of services to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.856881886188, 10.251720198547. For more details, visit their website at https://www.google.com/maps/place/Residence+Dorrat+Carthage+1/data=!4m10!3m9!1s0x12e2b52fecee12f1:0x82f05796395d2e1!5m2!4m1!1i2!8m2!3d36.8524621!4d10.2964735!16s%2Fg%2F11h34x7yy8!19sChIJ8RLu7C-14hIR4dKVY3kFLwg?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>**Résidence Dorrat Carthage 1**
+This charming residence, located at the heart of Carthage with coordinates (36.856881886188, 10.251720198547), offers a peaceful haven for travelers. Boasting a 4-star rating and 3 rave reviews, the residence prioritizes comfort and convenience for its guests. With amenities that cater to both leisure and business travelers, it ensures a memorable stay.</t>
         </is>
       </c>
     </row>
@@ -6436,9 +6401,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>If you're in carthage, check out chambresd'hotes DAR EL FELL, located at Site archeologique de Carthage, Rue Hedi Zarrouk. 
-This top-rated destination is perfect for Chambre d'hotes lovers and offers a range of Chambre d'hotes options. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.856104, 10.3249089. For more details, visit their website at https://www.google.com/maps/place/chambresd%27hotes+DAR+EL+FELL/data=!4m10!3m9!1s0x12e2b5075d085aef:0xc6ccd7fa5cd2da05!5m2!4m1!1i2!8m2!3d36.8709761!4d10.3486256!16s%2Fg%2F11p6132xp9!19sChIJ71oIXQe14hIRBdrSXPrXzMY?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>chambresd'hotes DAR EL FELL is a 5-star Bed &amp; Breakfast located in Carthage, Tunisia. It is situated at the Site archeologique de Carthage on Rue Hedi Zarrouk. The coordinates of the establishment are (36.856104, 10.3249089).</t>
         </is>
       </c>
     </row>
@@ -6537,7 +6500,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a place to stay, check out Hotel located at Rue Abdelhafidh El Mekki, Site archeologique de Carthage. This top-rated destination is perfect for Hebergement lovers and has a rating of 5.0. To get there, you can use these GPS coordinates: 37.178689, -94.313919. For more details, visit their website at https://www.google.com/maps/place/Hotel/data=!4m10!3m9!1s0x12e2b56a7b7e238f:0x3a2528354eaa3d59!5m2!4m1!1i2!8m2!3d36.8835256!4d10.3305805!16s%2Fg%2F11fl9lqtr2!19sChIJjyN-e2q14hIRWT2qTjUoJTo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 27 206 202.</t>
+          <t>Nestled in the heart of the ancient Site archéologique de Carthage, Hotel offers a comfortable and convenient stay for travelers. With 2 positive reviews, the hotel boasts a 5-star rating. Located at V8MJ+C68 Rue Abdelhafidh El Mekki, the hotel's precise coordinates are (36.8835256, 10.3305805).</t>
         </is>
       </c>
     </row>
@@ -6632,7 +6595,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a place to stay, consider Le jardin located at Rue El Amel, Site archeologique de Carthage. This top-rated destination is perfect for those seeking accommodation and offers a rating of 4.0. For more details, call them at 20 769 014.</t>
+          <t>Located in the archaeological site of Carthage with coordinates (37.178689, -94.313919), Le jardin offers accommodation services. It has a great rating of 4.0, one review, and its main contact is by phone: 20 769 014.</t>
         </is>
       </c>
     </row>
@@ -6731,9 +6694,9 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a top-rated hotel, check out Hotel du Parc located at RJMQ+462 Hotel du Parc, Rue de Carthage, Sousse. 
-This destination is perfect for hotel lovers and offers a range of categories to choose from. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: (35.832525666098, 10.638054341846).</t>
+          <t>Hotel du Parc is a 4.3-star hotel located in Sousse, Tunisia. It offers a variety of amenities, including a restaurant, bar, and swimming pool. The hotel is also close to a number of attractions, including the Medina of Sousse and the Ribat of Sousse.
+Latitude: 35.832525666098
+Longitude: 10.638054341846</t>
         </is>
       </c>
     </row>
@@ -6836,7 +6799,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a tasty seafood meal, head to Restaurant Carthage Beach at VJ85+782. This top-rated destination is perfect for seafood lovers and offers a range of dishes to choose from. With a rating of 4.4, it's a must-visit spot. It's open daily from 11:00 am to 1:00 am. To get there, use these GPS coordinates: 35.8612513, 10.6018935. For more details, visit their website or call them at 73 325 102.</t>
+          <t>Located in Carthage, Hammam Sousse (35.8612513, 10.6018935), Restaurant Carthage Beach boasts a 4.4 rating based on 73 reviews. It specializes in seafood, offering a wide selection of dishes to satisfy your cravings. The restaurant is open from 11:00 AM to 1:00 AM every day, providing ample time for you to enjoy their delicious offerings. With its convenient location and welcoming ambiance, Restaurant Carthage Beach is the perfect place to savor the flavors of the sea.</t>
         </is>
       </c>
     </row>
@@ -6931,7 +6894,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for something related to the sea, check out Port militaire de Carthage la phenicienne located at Port militaire de Carthage la phenicienne. This top-rated destination is perfect for sea lovers and offers a range of sea-related activities to choose from. With a rating of 3.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.84549544791, 10.323294862324. For more details, visit their website at https://www.google.com/maps/place/Port+militaire+de+Carthage+la+ph%C3%A9nicienne/data=!4m7!3m6!1s0x12fd4b35747eb133:0x8aee37f304577697!8m2!3d36.8458069!4d10.3250568!16s%2Fg%2F1tfljbpq!19sChIJM7F-dDVL_RIRl3ZXBPM37oo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at (No phone number available).</t>
+          <t>Port militaire de Carthage la phénicienne is a military port located in Carthage, Tunisia. It is situated at the coordinates (36.84549544791, 10.323294862324). The port has a rating of 3.0 based on 2 reviews and belongs to the category "Sea".</t>
         </is>
       </c>
     </row>
@@ -7026,7 +6989,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out Port militaire de Carthage la phenicienne located at Port militaire de Carthage la phenicienne. This top-rated destination is perfect for Mer lovers and offers a range of Mer to choose from. With a rating of 3.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.84549544791, 10.323294862324.</t>
+          <t>The Port militaire de Carthage la Phenicienne, located at (36.84549544791, 10.323294862324), is a military port in Carthage. It is not open to the public, but visitors can admire it from the outside. The port offers a range of services, including ship repair and maintenance, fuel bunkering, and cargo handling. It is a vital part of the country's defense system and plays a key role in the nation's maritime security.</t>
         </is>
       </c>
     </row>
@@ -7121,7 +7084,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for something fun related to the sea to do, check out Port marchand de Carthage la phenicienne located at Port marchand de Carthage la phenicienne. This top-rated destination offers a range of categories to choose from. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 36.84549544791, 10.323294862324.</t>
+          <t>Located at (36.84549544791, 10.323294862324), Port marchand de Carthage la phenicienne is a sea port in Carthage, Tunisia. It offers a variety of services, including boat rentals, fishing charters, and tours of the area.</t>
         </is>
       </c>
     </row>
@@ -7216,7 +7179,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for something fun to do, check out Point of Carthage by the sea located at R8VH+X2H Point of Carthage by the sea, Carthage. This top-rated destination is perfect for Point de vue lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.86108, 10.33161. For more details, visit their website at https://www.google.com/maps/place/Point+of+Carthage+by+the+sea/data=!4m7!3m6!1s0x12fd4b73b36de60f:0x74e7d8a841271e30!8m2!3d36.8449413!4d10.3276239!16s%2Fg%2F11h5sn5d97!19sChIJD-Zts3NL_RIRMB4nQajY53Q?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Point of Carthage by the sea is a viewpoint located in Carthage, Tunisia. It offers panoramic views of the Mediterranean Sea and the surrounding area. The viewpoint is accessible by car or on foot, and there is a small parking lot available. There are no amenities at the viewpoint, but there are several restaurants and cafes nearby.</t>
         </is>
       </c>
     </row>
@@ -7311,9 +7274,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a great maritime experience, check out Port Militaire de Carthage la Phenicienne located at Port militaire de Carthage la Phenicienne. 
-This popular destination is perfect for seaside enthusiasts and offers a range of nautical activities to choose from. 
-With a rating of 3 stars, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Port+militaire+de+Carthage+la+ph%C3%A9nicienne/data=!4m7!3m6!1s0x12fd4b35747eb133:0x8aee37f304577697!8m2!3d36.8458069!4d10.3250568!16s%2Fg%2F1tfljbpq!19sChIJM7F-dDVL_RIRl3ZXBPM37oo?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Port militaire de Carthage la phenicienne is a military port of carthage, offering its services for the naval operations. The fort is situated at (36.84549544791, 10.323294862324) i.e. in latitude 36.84549544791 and longitude 10.323294862324.</t>
         </is>
       </c>
     </row>
@@ -7412,7 +7373,8 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out Vue Mer Sidi Bou Said located at V8HV+CQ Vue Mer Sidi Bou Said, Site archeologique de Carthage. This top-rated destination is perfect for Attraction touristique lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on . To get there, use these GPS coordinates: 37.178689, -94.313919.</t>
+          <t>**Vue Mer Sidi Bou Said**
+Located in Carthage, Vue Mer Sidi Bou Said is a popular tourist attraction known for its stunning views of the Mediterranean Sea. With a 4.0 rating based on one review, visitors can expect to enjoy the scenic beauty of this destination. Open 24 hours a day, the attraction allows for convenient visits at any time.</t>
         </is>
       </c>
     </row>
@@ -7515,7 +7477,7 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out Restaurant Carthage Beach located at VJ85+782 Restaurant Carthage Beach, Hammam Sousse. This top-rated destination is perfect for Restaurant de fruits de mer lovers and offers a range of Restaurant de fruits de mer, Bar to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 11:00-01:00, but closed on none specified. To get there, use these GPS coordinates: 35.8612513, 10.6018935. For more details, visit their website at nan or call them at 73 325 102.</t>
+          <t>Restaurant Carthage Beach is a seafood restaurant located in Hammam Sousse, Tunisia. It has a 4.4 rating on Google from 73 reviews. The restaurant is open from 11:00 AM to 1:00 AM every day and serves a variety of seafood dishes. The restaurant is located at coordinates (35.8612513, 10.6018935).</t>
         </is>
       </c>
     </row>
@@ -7618,7 +7580,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>If you're in carthage and craving some seafood, head over to Restaurant Carthage Beach located at VJ85+782 Restaurant Carthage Beach, Hammam Sousse. This top-rated spot offers a delightful range of seafood dishes and serves as a bar too. Rated 4.4 out of 5, it's a must-visit for seafood lovers. They're open during these hours: 11:00-01:00 and to get there, use these GPS coordinates: 35.8612513, 10.6018935. For more info, visit their website or call them at 73 325 102.</t>
+          <t>Restaurant Carthage Beach is a popular seafood restaurant located in Hammam Sousse, Tunisia. It offers a variety of seafood dishes, as well as a selection of beers. The restaurant is open from 11:00am to 1:00am, and is closed on Mondays. It is located at 35.8612513, 10.6018935.</t>
         </is>
       </c>
     </row>
@@ -7717,7 +7679,7 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for something fun to do, check out Ennejma Ezzahra Palace located at Ennejma Ezzahra Palace, Palais du Baron d' Erlanger, 25 Rue du Maroc, Site archeologique de Carthage. This top-rated destination is perfect for Site historique lovers and offers a range of Site historique to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-13:00, 14:00-16:00, but closed on Monday, Saturday. To get there, use these GPS coordinates: 36.749684542815, 10.305778593411. For more details, visit their website at https://www.google.com/maps/place/Ennejma+Ezzahra+Palace/data=!4m7!3m6!1s0x12e2b49fb32ff243:0x9c2b657e5b415ce3!8m2!3d36.8691667!4d10.3477778!16s%2Fg%2F1q5bl7m7z!19sChIJQ_Ivs5-04hIR41xBW35lK5w?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Located in the heart of Carthage, Ennejma Ezzahra Palace, also known as Palais du Baron d'Erlanger, is a historical site that offers a glimpse into the past. With its stunning architecture, beautiful gardens, and a rich collection of instruments and paintings, the palace is a popular attraction for history and art enthusiasts. Open from 9 am to 1 pm and 2 pm to 4 pm, closed on Mondays and Saturdays, visitors can explore the palace and its collections, and enjoy the tranquility of its gardens.</t>
         </is>
       </c>
     </row>
@@ -7816,9 +7778,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out Site archeologique de Carthage located at Site archeologique de Carthage, 88 Rte de La Goulette, Site archeologique de Carthage.
-This top-rated destination is perfect for Attraction touristique lovers and offers a range of Attraction touristique, Site historique to choose from. 
-With a rating of 4.4, it's a must-visit spot. For more details, visit their website at http://www.commune-carthage.gov.tn/fr/index.php%3Fsrub%3D261%26rub%3D247</t>
+          <t>Located at (44.603207192021, -70.467160588887), Site archeologique de Carthage is an archeological site in Carthage, Tunisia. It is a UNESCO World Heritage site and is known for its well-preserved Roman ruins. The site includes the remains of a Roman city, including a forum, temples, baths, and an amphitheater. It also has a museum that houses artifacts from the site.</t>
         </is>
       </c>
     </row>
@@ -7917,9 +7877,9 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out Basilique de Damous Karita located at V86J+MG3 Basilique de Damous Karita, Rte de La Goulette, Site archeologique de Carthage. 
-This top-rated destination is perfect for Site archeologique lovers and offers a range of Attraction touristique to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 37.178689, -94.313919. For more details, visit their website at https://www.google.com/maps/place/Basilique+de+Damous+Karita/data=!4m7!3m6!1s0x12e2b4b93c2aad3b:0x896eb70e0f45d95d!8m2!3d36.8616498!4d10.3312832!16s%2Fg%2F121c51xf!19sChIJO60qPLm04hIRXdlFDw63bok?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>The Basilique de Damous Karita is an archaeological site located in Carthage, Tunisia. It is a UNESCO World Heritage Site and is one of the most popular tourist attractions in the country.
+The basilica was built in the 6th century AD and is a fine example of early Christian architecture. It is a large, rectangular building with a nave and two aisles. The nave is lined with columns and the walls are decorated with mosaics. The basilica also has a baptistery and a number of other features.
+The Basilique de Damous Karita is located at the end of the Rue de Carthage, in the centre of Carthage. It is open to the public 24 hours a day and there is no admission fee.</t>
         </is>
       </c>
     </row>
@@ -8018,7 +7978,7 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a historical site to visit, check out Edifice a colonnes located at Rue du 2 mars 1934, Site archeologique de Carthage. This top-rated destination is perfect for history lovers. With a rating of 4.4, it's a must-visit spot. It's open 24 hours a day but closed on []. To get there, use these GPS coordinates: 36.869221775737, 10.346602744512.</t>
+          <t>Edifice a colonnes is a historical site located in Carthage, Tunisia, at the coordinates 36.869221775737, 10.346602744512. It is known for its impressive columns and rich history, making it a popular tourist attraction. With a rating of 4.4 out of 5 based on 40 reviews, this historical site offers visitors an immersive experience into the region's past.</t>
         </is>
       </c>
     </row>
@@ -8113,7 +8073,7 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a fascinating historical site, visit Palais Ahmed Bey de la Marsa at V8MJ+892 Palais Ahmed Bey de la Marsa, Site archeologique de Carthage. This top-rated destination is perfect for history buffs and offers a range of categories to choose from, including Site historique and Chateau. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.178689, -94.313919.</t>
+          <t>Palais Ahmed Bey de la Marsa is a historical site located at (37.178689, -94.313919) in Carthage. It has a rating of 5.0 based on 3 reviews and falls under the main category of Historical Site.</t>
         </is>
       </c>
     </row>
@@ -8208,9 +8168,7 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a top-rated historical spot, visit Palais zarrouk located at 25 Avenue de la Republique, Site archeologique de Carthage. 
-This popular location is a must-visit for history enthusiasts, boasting a rating of 4.0. 
-For more information, check out their website or use the GPS coordinates (36.851915399009, 10.331578110499) to get there.</t>
+          <t>Palais zarrouk is a historical site located in Carthage, Tunisia. It offers a glimpse into the rich history of the region and is a popular destination for tourists and locals alike. The palace is situated at the coordinates (36.851915399009, 10.331578110499) and is easily accessible by car or public transportation.</t>
         </is>
       </c>
     </row>
@@ -8305,7 +8263,7 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a memorable historical experience, visit Monument Circulaire, located at 10 Bd de l'Environnement. This top-rated destination is renowned for its historical significance and offers an immersive journey into the past. With a perfect rating of 5.0, it's a must-visit spot for history enthusiasts. For further information, visit the website or call them at the provided phone number.</t>
+          <t>Monument Circulaire is a historical site located in Carthage, Tunisia. The site is a circular monument that dates back to the Roman period. It is one of the most popular tourist attractions in Carthage and is known for its impressive architecture and historical significance. The monument is situated on a hill overlooking the Gulf of Tunis and offers stunning views of the surrounding area. Visitors can explore the ruins of the monument and learn about its history and significance.</t>
         </is>
       </c>
     </row>
@@ -8408,7 +8366,7 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a historical adventure, check out Les Ruines de Carthage located at Impasse des Thermes d'Antonin, Site archeologique de Carthage. This top-rated destination is perfect for history buffs and offers a range of historical ruins to explore. With a rating of 4.7, it's a must-visit spot. It's open 24 hours a day, so you can visit at your convenience. To get there, use these GPS coordinates: 37.178689, -94.313919. For more details, visit their website at https://blog-tunez.com/ciudades-de-tunez/cartago/ or call them at [NAN].</t>
+          <t>Les Ruines de Carthage, a historical site located at (37.178689, -94.313919), is a must-visit destination. This place offers tourists an opportunity to explore the remnants of Carthage, an ancient city. The ruins include structures from the Punic and Roman periods, providing a glimpse into the rich history of the region. Visitors can also find exhibits and displays that provide further context and information about the site. The site is open 24 hours a day and offers a unique and educational experience for visitors.</t>
         </is>
       </c>
     </row>
@@ -8507,11 +8465,7 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a fascinating glimpse into history, visit the Amphitheatre de Carthage, located at V847+CXG Amphitheatre de Carthage, Site archeologique de Carthage. 
-This top-rated destination is a must-visit for history enthusiasts and offers a unique opportunity to explore one of the most impressive historical sites in the region. 
-With a rating of 4.3 and over 329 reviews, it's a testament to its popularity. The Amphitheatre is open daily from 08:00-17:00, except on Mondays. 
-To get there, simply use the provided GPS coordinates (36.856104, 10.3249089). 
-For more details, visit their website at https://www.google.com/maps/place/Amphith%C3%A9%C3%A2tre+de+Carthage/data=!4m7!3m6!1s0x12e2b4d1cc3079f1:0x6f485c271c8bb080!8m2!3d36.856068!4d10.314953!16s%2Fm%2F0129lgn9!19sChIJ8XkwzNG04hIRgLCLHCdcSG8?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>The Amphitheatre de Carthage is an ancient Roman amphitheatre located in Carthage, Tunisia. Built in the 1st century AD, it is one of the largest and best-preserved amphitheatres in North Africa. The amphitheatre has a capacity of over 30,000 spectators and was used for gladiatorial contests, chariot races, and other public spectacles. Today, the Amphitheatre de Carthage is a popular tourist destination and offers visitors a glimpse into the rich history of Carthage.</t>
         </is>
       </c>
     </row>
@@ -8610,7 +8564,7 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a top-rated tourist attraction, check out Site archeologique de Carthage located at Site archeologique de Carthage, 88 Rte de La Goulette, Site archeologique de Carthage. This must-visit spot is perfect for history and historic site lovers and has received a 4.4 rating. Their website is http://www.commune-carthage.gov.tn/fr/index.php%3Fsrub%3D261%26rub%3D247 for more details.</t>
+          <t>Site archéologique de Carthage is a historical attraction located in Carthage, Tunisia. It offers visitors a glimpse into the rich history of Carthage and features ruins, a museum, and a cathedral. The site is easily accessible and has received positive reviews for its historical significance and educational value.</t>
         </is>
       </c>
     </row>
@@ -8717,7 +8671,7 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for something historical to do, check out Cimetiere americain de Carthage located at 553 rue Roosevelt, Site archeologique de Carthage 2016. This top-rated destination is perfect for history lovers and offers a range of categories to choose from, including a military cemetery, chapel, historical site, memorial park, and tourist attraction. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 09:00-17:00, but closed on Saturday and Sunday. To get there, use these GPS coordinates: 36.8538511, 10.3230624.</t>
+          <t>Located in the heart of Carthage, the American Cemetery and Memorial is a serene and poignant tribute to the brave American soldiers who fought and sacrificed in North Africa during World War II. This hallowed ground holds the remains of 2,841 American service members, whose names are eternally etched into the white marble headstones that line the meticulously landscaped grounds. Visitors are welcome to explore the cemetery's peaceful pathways, reflecting on the sacrifices made by these fallen heroes.</t>
         </is>
       </c>
     </row>
@@ -8816,7 +8770,7 @@
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out Edifice a colonnes located at Rue du 2 mars 1934, Site archeologique de Carthage. This top-rated destination is perfect for Site historique lovers and offers a range of Attraction touristique to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.869221775737, 10.346602744512. For more details, visit their website at https://www.google.com/maps/place/Edifice+%C3%A0+colonnes/data=!4m7!3m6!1s0x12e2b4c8683b6a07:0x4fbac67ebf63ddb9!8m2!3d36.856643!4d10.325346!16s%2Fg%2F122z_pxc!19sChIJB2o7aMi04hIRud1jv37Guk8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at phone.</t>
+          <t>Edifice a colonnes is an historical site with a rating of 4.4 stars, situated at the coordinates (36.869221775737, 10.346602744512) in Carthage. The site is famous for its historical significance and is a popular tourist attraction.</t>
         </is>
       </c>
     </row>
@@ -8911,7 +8865,7 @@
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for something fun to do, check out Palais zarrouk located at Palais zarrouk, 25 Avenue de la Republique. This top-rated destination is perfect for Site historique lovers. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.851915399009, 10.331578110499. For more details, visit their website at https://www.google.com/maps/place/Palais+zarrouk/data=!4m7!3m6!1s0x12e2b559642d93d5:0x1b81f559a83b154!8m2!3d36.8519875!4d10.3324649!16s%2Fg%2F121dplyf!19sChIJ1ZMtZFm14hIRVLGDmlUfuAE?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Nestled in the heart of the ancient city of Carthage, Tunis, Palais Zarrouk is a captivating historical site. As you step into this well-preserved palace, you'll be transported back to a bygone era, immersing yourself in the rich history and culture of this UNESCO World Heritage Site. Its prime location on Avenue de la Republique makes it easily accessible, inviting you to explore its captivating structures and uncover the secrets of Carthage.</t>
         </is>
       </c>
     </row>
@@ -9006,7 +8960,7 @@
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>If you're visiting Carthage and looking for a captivating historical experience, make sure to explore Monument Circulaire, situated at 10 Bd de l'Environnement, Site archeologique de Carthage. This top-rated destination has a rating of 5.0 and is a perfect spot for history enthusiasts. Currently, detailed information on opening hours and specific categories offered is unavailable. However, coordinates (37.178689, -94.313919) can guide you to this remarkable site.</t>
+          <t>Monument Circulaire is a historical site located at 10 Bd de l'Environnement, Site archeologique de Carthage (37.178689, -94.313919). It has a 5.0 rating based on 3 reviews and offers historical exploration opportunities.</t>
         </is>
       </c>
     </row>
@@ -9105,7 +9059,7 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out Site archeologique de Carthage located at Site archeologique de Carthage, 88 Rte de La Goulette. This top-rated destination is perfect for Attraction touristique lovers and offers a range of Attraction touristique, Site historique to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 44.603207192021, -70.467160588887. For more details, visit their website at http://www.commune-carthage.gov.tn/fr/index.php%3Fsrub%3D261%26rub%3D247</t>
+          <t>The Site archeologique de Carthage is a historical attraction in Carthage. As a popular tourist spot, visitors leave reviews online expressing appreciation for its historical significance (ruins, cathedral), museum, and available information (maps, guides). Located at 88 Rte de La Goulette, it offers a glimpse into the past with its well-preserved ruins and artifacts.</t>
         </is>
       </c>
     </row>
@@ -9204,9 +9158,7 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for something fun to do, check out the top-rated Kobba Bent el Rey, located at V84J+XJ6 Kobba Bent el Rey, Rte de La Goulette, Site archeologique de Carthage 7016. 
-This Site archeologique lovers' paradise offers a range of experiences to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 09:00-17:00. 
-To get there, use these GPS coordinates: 37.1740163, 10.0297964. For more details, visit their website at https://www.google.com/maps/place/Kobba+Bent+el+Rey/data=!4m7!3m6!1s0x12e2b4b9e81e75f9:0x390c42fed007a16c!8m2!3d36.8574024!4d10.331506!16s%2Fg%2F121kwm7v!19sChIJ-XUe6Lm04hIRbKEH0P5CDDk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Kobba Bent el Rey is an archeological site located in Carthage, Tunisia (37.1740163, 10.0297964), featuring ruins and mosaics. The site depicts the ancient Roman civilization, offering insights into its architecture, history and art. With 4.5 stars and 170 reviews, it attracts visitors with its historical significance and scenic island location set off the coast of the Mediterranean Sea.</t>
         </is>
       </c>
     </row>
@@ -9305,7 +9257,7 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out Edifice a colonnes located at Rue du 2 mars 1934, Site archeologique de Carthage. This top-rated destination is perfect for Site historique lovers and offers a range of Site historique, Attraction touristique to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on . To get there, use these GPS coordinates: 36.869221775737, 10.346602744512. For more details, visit their website at  or call them at .</t>
+          <t>The Edifice à Colonnes is a historical site located in the archaeological site of Carthage, Tunisia. It is a well-preserved example of Roman architecture and offers a glimpse into the city's rich history. The site is open 24 hours a day and is a popular tourist attraction.</t>
         </is>
       </c>
     </row>
@@ -9404,11 +9356,7 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a top-rated attraction, check out Kobba Bent el Rey located at V84J+XJ6 Kobba Bent el Rey, Rte de La Goulette, Site archeologique de Carthage 7016. 
-This Site archeologique is perfect for history lovers and offers a range of categories to choose from, including Museum and Archaeological site. 
-With a rating of 4.5, it's a must-visit spot and is open during these hours: 09:00-17:00. 
-To get there, use these GPS coordinates: 37.1740163, 10.0297964. 
-For more details, visit their link: https://www.google.com/maps/place/Kobba+Bent+el+Rey/data=!4m7!3m6!1s0x12e2b4b9e81e75f9:0x390c42fed007a16c!8m2!3d36.8574024!4d10.331506!16s%2Fg%2F121kwm7v!19sChIJ-XUe6Lm04hIRbKEH0P5CDDk?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Kobba Bent el Rey is an archaeological site located at the entrance of the Gulf of Tunis. The site is a preserved vestige of a Roman villa dating back to the 2nd century AD. It is known for its well-preserved mosaics depicting scenes from mythology and everyday life. The site also offers panoramic views of the sea and surrounding landscape.</t>
         </is>
       </c>
     </row>
@@ -9507,9 +9455,7 @@
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a historical site, check out Edifice a colonnes located at Rue du 2 mars 1934, Site archeologique de Carthage. 
-This top-rated site is perfect for history lovers and is also a top-rated tourist attraction. 
-With a rating of 4.4, it's a must-visit spot. It's open 24 hours a day, so you can visit it anytime. To get there, use these GPS coordinates: 36.869221775737, 10.346602744512.</t>
+          <t>The Edifice a colonnes is a historical site situated in Carthage at (36.869221775737, 10.346602744512). It's a famous tourist attraction open 24 hours. The place has 40 reviews and is rated 4.4 out of 5.</t>
         </is>
       </c>
     </row>
@@ -9608,9 +9554,7 @@
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for something fun to do, check out Kobba Bent el Rey located at V84J+XJ6 Kobba Bent el Rey, Rte de La Goulette, Site archeologique de Carthage 7016. 
-This top-rated destination is perfect for history buffs and offers a range of categories to choose from, including Site archeologique and Attraction touristique. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 09:00-17:00. To get there, use these GPS coordinates: 37.1740163, 10.0297964. For more details, visit Kobba Bent el Rey (proprietaire)'s website at https://www.google.com/maps/place/Kobba+Bent+el+Rey/data=!4m7!3m6!1s0x12e2b4b9e81e75f9:0x390c42fed007a16c!8m2!3d36.8574024!4d10.331506!16s%2Fg%2F121kwm7v!19sChIJ-XUe6Lm04hIRbKEH0P5CDDk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Kobba Bent el Rey is an archaeological site located in Carthage, Tunisia. The site features ruins of a Roman villa, as well as a museum. It is open to the public from 9am to 5pm.</t>
         </is>
       </c>
     </row>
@@ -9709,9 +9653,7 @@
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out Kobba Bent el Rey located at V84J+XJ6 Kobba Bent el Rey, Rte de La Goulette, Site archeologique de Carthage 7016. 
-This top-rated destination is perfect for Site archeologique and Attraction touristique lovers. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 09:00-17:00. To get there, use these GPS coordinates: 37.1740163, 10.0297964. For more details, visit their website at https://www.google.com/maps/place/Kobba+Bent+el+Rey/data=!4m7!3m6!1s0x12e2b4b9e81e75f9:0x390c42fed007a16c!8m2!3d36.8574024!4d10.331506!16s%2Fg%2F121kwm7v!19sChIJ-XUe6Lm04hIRbKEH0P5CDDk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at not given.</t>
+          <t>Kobba Bent el Rey is an archaeological site located in Carthage, Tunisia. Overlooking the Mediterranean Sea, this historical site offers stunning views and a fascinating glimpse into the city's rich past. Step back in time as you explore the ruins of a Roman villa, marvel at intricate mosaics, and discover the secrets of its ancient occupants. With a 4.5-star rating based on 170 reviews, it's a must-visit destination for history buffs and anyone seeking a unique cultural experience.</t>
         </is>
       </c>
     </row>
@@ -9810,7 +9752,7 @@
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>If you're in Carthage, Edifice a colonnes is a must-visit historic site. Located on Rue du 2 mars 1934, Site archeologique, this top-rated destination is famous among history enthusiasts and offers an array of experiences to choose from. With a rating of 4.4, Edifice a colonnes is open 24 hours a day. To get there, use these GPS coordinates: 36.869221775737, 10.346602744512. For more details, visit their website at  or call them at .</t>
+          <t>The Edifice a colonnes is a historical site located in Carthage, Tunisia. It is a well-preserved example of Roman architecture, and is a popular tourist attraction. The site is open 24 hours a day, and is free to visit. The Edifice a colonnes is located at 36.869221775737, 10.346602744512.</t>
         </is>
       </c>
     </row>
@@ -9913,7 +9855,7 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out Dar El Annabi. This top-rated destination is perfect for Site historique lovers and offers a range of Site historique, Musee du patrimoine to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 09:00-18:00. To get there, use these GPS coordinates: 36.870652698522, 10.350747588847. For more details, visit their website at https://www.google.com/maps/place/Dar+El+Annabi/data=!4m7!3m6!1s0x12e2b49e771743cf:0x9d30f7f3e2d2beb6!8m2!3d36.8709673!4d10.3474229!16s%2Fg%2F11f3w6l6p1!19sChIJz0MXd5604hIRtr7S4vP3MJ0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 27 913 088.</t>
+          <t>Dar El Annabi is a historical site and a heritage museum located at the archaeological site of Carthage. Situated on Rue Hedi Zarrouk, its exact coordinates are (36.870652698522, 10.350747588847). The museum is highly acclaimed with a rating of 4.7 based on 538 reviews and offers a cultural experience through its architecture and exhibits, providing insight into the history and way of life in the past.</t>
         </is>
       </c>
     </row>
@@ -10020,7 +9962,7 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out Musee national de Carthage located at V83F+7QR Musee national de Carthage, Site archeologique de Carthage. This top-rated destination is perfect for Musee d'histoire lovers and offers a range of categories to choose from. With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 36.856104, 10.3249089. For more details, visit their website at https://carthagemagazine.com/carthage-national-museum/ or call them at 58 162 557.</t>
+          <t>The Musée National de Carthage, located in Carthage, is an archaeological museum that showcases statues, pottery, and other artifacts discovered during excavations in the region. It is a well-known tourist destination with positive reviews and a rating of 4.2/5.</t>
         </is>
       </c>
     </row>
@@ -10127,7 +10069,7 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for something fun to do, check out Musee national de Carthage, located at V83F+7QR Musee national de Carthage, Site archeologique de Carthage. This top-rated destination is perfect for history museum lovers. With a rating of 4.2, it's a must-visit spot. It's open during these hours: nan, but closed on nan. To get there, use these GPS coordinates: 36.856104, 10.3249089. For more details, visit their website at https://carthagemagazine.com/carthage-national-museum/ or call them at 58 162 557.</t>
+          <t>The National Museum of Carthage is an archaeological museum located in the city of Carthage, Tunisia. The museum houses a collection of artifacts from the ancient city of Carthage, including statues, pottery, and other objects. The museum is located near the ruins of the ancient city, and offers visitors a glimpse into the history of Carthage. The current building opened in 1951. The museum's collection includes over 3,000 artifacts from the Phoenician, Punic, Roman, and Byzantine periods. Highlights of the collection include a marble statue of Julius Caesar, a bronze statue of the god Mercury, and a collection of Roman mosaics. The museum also has a library with over 10,000 books on archaeology and the history of Carthage.</t>
         </is>
       </c>
     </row>
@@ -10230,9 +10172,7 @@
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out Dar El Annabi located at Dar El Annabi, 48 Rue Hedi Zarrouk, Site archeologique de Carthage. 
-This top-rated destination is perfect for Site historique lovers and offers a range of Site historique, Musee du patrimoine to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 09:00-18:00. To get there, use these GPS coordinates: 36.870652698522, 10.350747588847. For more details, visit their website at https://www.google.com/maps/place/Dar+El+Annabi/data=!4m7!3m6!1s0x12e2b49e771743cf:0x9d30f7f3e2d2beb6!8m2!3d36.8709673!4d10.3474229!16s%2Fg%2F11f3w6l6p1!19sChIJz0MXd5604hIRtr7S4vP3MJ0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 27 913 088.</t>
+          <t>Dar El Annabi is a historical site located in Carthage, Tunisia. It is a museum of heritage and a popular spot for tourists. The museum offers a glimpse into the past of Carthage, with exhibits on the city's history, culture and architecture. The museum also features a beautiful garden and terrace, making it a great place to relax and enjoy the views.</t>
         </is>
       </c>
     </row>
@@ -10335,7 +10275,7 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for something fun to do, check out Dar El Annabi located at Dar El Annabi, 48 Rue Hedi Zarrouk, Site archeologique de Carthage. This top-rated destination is perfect for Site historique and Musee du patrimoine lovers and offers a range of categories to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 09:00-18:00. To get there, use these GPS coordinates: 36.870652698522, 10.350747588847. For more details, visit their website at https://www.google.com/maps/place/Dar+El+Annabi/data=!4m7!3m6!1s0x12e2b49e771743cf:0x9d30f7f3e2d2beb6!8m2!3d36.8709673!4d10.3474229!16s%2Fg%2F11f3w6l6p1!19sChIJz0MXd5604hIRtr7S4vP3MJ0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 27 913 088.</t>
+          <t>Dar El Annabi, a historical site in Carthage, offers a unique glimpse into the past. Located at 48 Rue Hedi Zarrouk, this site boasts a 4.7-star rating and is popular for its terraces, cultural significance, and affordability. With its convenient hours of operation from 9:00 AM to 6:00 PM and easy accessibility, Dar El Annabi is a must-visit destination for history enthusiasts and culture buffs alike.</t>
         </is>
       </c>
     </row>
@@ -10442,7 +10382,7 @@
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for something fun to do, check out Baths of Antoninus located at V83M+MXX Baths of Antoninus, Impasse des Thermes d'Antonin, Site archeologique de Carthage 2016. This top-rated destination is perfect for Site historique lovers and offers a range of Site historique, Thermes and Attraction touristique to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 08:00-17:00. To get there, use these GPS coordinates: 36.8538511, 10.3230624. For more details, visit their website at https://www.google.com/maps/place/Baths+of+Antoninus/data=!4m7!3m6!1s0x12e2b4b0df7dacd9:0x21a753cd8ef53c2b!8m2!3d36.8542301!4d10.3349701!16s%2Fg%2F121pw5fw!19sChIJ2ax937C04hIRKzz1js1TpyE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 94 703 100.</t>
+          <t>Explore the magnificent Baths of Antoninus, a sprawling Roman bath complex dating back to the 2nd century. Located in the heart of Carthage, this UNESCO World Heritage Site invites you to wander through its vast ruins and immerse yourself in ancient history. Nestled amidst a picturesque archaeological park, the Baths of Antoninus offer a breathtaking glimpse into the grandeur of the Roman Empire.</t>
         </is>
       </c>
     </row>
@@ -10549,7 +10489,7 @@
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for something fun to do, check out Musée national de Carthage located at V83F+7QR Musee national de Carthage, Site archeologique de Carthage. This top-rated destination is perfect for history lovers and offers a range of categories to choose from. With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 36.856104, 10.3249089. For more details, visit their website at https://carthagemagazine.com/carthage-national-museum/ or call them at 58 162 557.</t>
+          <t>The Musée national de Carthage is an archaeological museum located in Carthage, Tunisia. It houses a collection of artifacts from the ancient city of Carthage, including statues, pottery, and mosaics. The museum is located on the site of the ancient city, and offers visitors a glimpse into its rich history.</t>
         </is>
       </c>
     </row>
@@ -10648,7 +10588,7 @@
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a fascinating historical experience, visit Kobba Bent el Rey, located on Rte de La Goulette, Site archeologique de Carthage 7016. Rated 4.5 stars, this top-rated archaeological site is a must-see. With its focus on Site archeologique, Kobba Bent el Rey offers a range of attractions for history buffs and tourists alike. It's open from 09:00-17:00, so plan your visit during those hours. For more information, visit their website at https://www.google.com/maps/place/Kobba+Bent+el+Rey/data=!4m7!3m6!1s0x12e2b4b9e81e75f9:0x390c42fed007a16c!8m2!3d36.8574024!4d10.331506!16s%2Fg%2F121kwm7v!19sChIJ-XUe6Lm04hIRbKEH0P5CDDk?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Kobba Bent el Rey is an archaeological site located in Carthage, Tunisia. It is known for its well-preserved Roman ruins, including a villa, mosaics, and a museum. The site is open to the public and offers guided tours. It is a popular tourist destination due to its historical significance and scenic views of the Mediterranean Sea.</t>
         </is>
       </c>
     </row>
@@ -10755,7 +10695,7 @@
       </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for something fun to do, check out D'Art Des Metiers De Lella Salha located at 1 Rue Habib Thameur, Site archeologique de Carthage. This top-rated destination is perfect for museum lovers and offers a range of categories to choose from. With a rating of 4.6, it's a must-visit spot in the area. It's open during these hours: 08:00-12:00, but closed on (Days closed information is not available). To get there, use these GPS coordinates: 36.845762788712, 10.320490026064. For more details, visit their website at https://www.facebook.com/ateliergalerie.dart/ or call them at 50 252 299.</t>
+          <t>D'Art Des Metiers De Lella Salha is a museum located in the archaeological site of Carthage, Tunisia, at the coordinates (36.845762788712, 10.320490026064). It has a rating of 4.6 based on 10 reviews. The museum is open from 8:00 to 12:00 and offers a unique glimpse into the rich history and culture of Carthage. Visitors can explore exhibits on traditional Tunisian crafts and learn about the local artisans who create them. The museum also has a website (https://www.facebook.com/ateliergalerie.dart/) where visitors can learn more about the museum and its collection.</t>
         </is>
       </c>
     </row>
@@ -10862,7 +10802,7 @@
       </c>
       <c r="Y103" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for something fun to do, check out Musee national de Carthage located at V83F+7QR Musee national de Carthage, Site archeologique de Carthage. This top-rated destination is perfect for history museum lovers and offers a range of categories to choose from. With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 36.856104, 10.3249089. For more details, visit their website at https://carthagemagazine.com/carthage-national-museum/ or call them at 58 162 557.</t>
+          <t>The Carthage National Museum is a museum in Carthage, Tunisia. It displays statues and pottery discovered during excavations in the region. The museum is located at 36.856104, 10.3249089.</t>
         </is>
       </c>
     </row>
@@ -10969,9 +10909,7 @@
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for something fun to do, check out Musee national de Carthage located at V83F+7QR Musee national de Carthage, Site archeologique de Carthage. 
-This top-rated destination is perfect for Musee d'histoire lovers and offers a range of Musee d'histoire to choose from. 
-With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 36.856104, 10.3249089. For more details, visit their website at https://carthagemagazine.com/carthage-national-museum/ or call them at 58 162 557.</t>
+          <t>The Musee national de Carthage is an archaeological museum in Carthage. It presents statues and pottery discovered during excavations in the region and offers insights into the city's past. Located at (36.856104, 10.3249089), it's a popular tourist destination with 581 reviews and a 4.2-star rating.</t>
         </is>
       </c>
     </row>
@@ -11074,7 +11012,7 @@
       </c>
       <c r="Y105" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a historical experience, visit Dar El Annabi located at 48 Rue Hedi Zarrouk, Site archeologique de Carthage. This top-rated destination is perfect for history buffs and features a range of categories to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 09:00-18:00. To get there, use these GPS coordinates: 36.870652698522, 10.350747588847. For more details, visit their website at https://www.google.com/maps/place/Dar+El+Annabi/data=!4m7!3m6!1s0x12e2b49e771743cf:0x9d30f7f3e2d2beb6!8m2!3d36.8709673!4d10.3474229!16s%2Fg%2F11f3w6l6p1!19sChIJz0MXd5604hIRtr7S4vP3MJ0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 27 913 088.</t>
+          <t>Dar El Annabi is a historical heritage museum located in the heart of Carthage, Tunisia. It is a popular tourist destination, offering visitors a glimpse into the history and culture of the ancient city. The museum is housed in a beautiful old mansion, which has been restored to its former glory. It features a collection of artifacts from the Roman, Byzantine, and Arab periods, as well as a library and a research center. The museum is open to the public from Monday to Friday.</t>
         </is>
       </c>
     </row>
@@ -11181,7 +11119,7 @@
       </c>
       <c r="Y106" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for an enriching cultural experience, visit Musée national de Carthage located at V83F+7QR Musee national de Carthage, Site archeologique de Carthage. This top-rated destination is perfect for history enthusiasts and offers a range of exhibits to choose from. With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 36.856104, 10.3249089. For more details, visit their website at https://carthagemagazine.com/carthage-national-museum/ or call them at 58 162 557.</t>
+          <t>The National Museum of Carthage is an archaeological museum that houses a collection of statues, pottery, and other artifacts discovered during excavations in the area. It is located in Carthage, a city in Tunisia, and features exhibits on the history of the region. The museum is open daily except on Mondays, and admission is free.</t>
         </is>
       </c>
     </row>
@@ -11284,9 +11222,7 @@
       </c>
       <c r="Y107" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out Dar El Annabi located at Dar El Annabi, 48 Rue Hedi Zarrouk, Site archeologique de Carthage. 
-This top-rated destination is perfect for Site historique lovers and offers a range of Site historique, Musee du patrimoine to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 09:00-18:00, but closed on . To get there, use these GPS coordinates: 36.870652698522, 10.350747588847. For more details, visit their website at https://www.google.com/maps/place/Dar+El+Annabi/data=!4m7!3m6!1s0x12e2b49e771743cf:0x9d30f7f3e2d2beb6!8m2!3d36.8709673!4d10.3474229!16s%2Fg%2F11f3w6l6p1!19sChIJz0MXd5604hIRtr7S4vP3MJ0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 27 913 088.</t>
+          <t>Dar El Annabi, located in Carthage with coordinates (36.870652698522, 10.350747588847), is a historical site and heritage museum offering insights into the past. It boasts 538 reviews and has a 4.7 rating, making it a popular spot for cultural exploration.</t>
         </is>
       </c>
     </row>
@@ -11393,7 +11329,7 @@
       </c>
       <c r="Y108" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a historical adventure, visit the Musée national de Carthage, located at V83F+7QR Musee national de Carthage, Site archeologique de Carthage. This top-rated museum is perfect for history enthusiasts, showcasing a collection of statues and pottery unearthed during excavations in the region. With a rating of 4.2, it's a must-visit spot. The museum is open daily, but closed on specific holidays. To get there, use these GPS coordinates: 36.856104, 10.3249089. For more details, visit their website at https://carthagemagazine.com/carthage-national-museum/ or call them at 58 162 557.</t>
+          <t>The Musee national de Carthage is an archaeological museum located in Carthage, Tunisia. It houses a collection of artifacts discovered during excavations in the region, including statues, pottery, and mosaics. The museum is located on the site of the ancient city of Carthage, which was founded in the 9th century BC. The museum is open to the public and offers guided tours.</t>
         </is>
       </c>
     </row>
@@ -11496,9 +11432,7 @@
       </c>
       <c r="Y109" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a Site historique to explore, check out Dar El Annabi located at Dar El Annabi, 48 Rue Hedi Zarrouk, Site archeologique de Carthage. 
-This top-rated destination is perfect for Site historique and Musee du patrimoine lovers and offers a range of categories to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 09:00-18:00, but closed on []. To get there, use these GPS coordinates: 36.870652698522, 10.350747588847. For more details, visit their website at nan or call them at 27 913 088.</t>
+          <t>Dar El Annabi is a historical site located in Carthage, Tunisia. It is a house-museum that offers visitors a glimpse into the past. The museum features exhibits on the history of Carthage, as well as the architecture and culture of the region. Visitors can also enjoy the beautiful gardens and terraces of the museum. Dar El Annabi is a popular destination for tourists and locals alike, and is a great place to learn about the history and culture of Carthage.</t>
         </is>
       </c>
     </row>
@@ -11605,9 +11539,7 @@
       </c>
       <c r="Y110" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out D'Art Des Metiers De Lella Salha located at 1 Rue Habib Thameur, Site archeologique de Carthage. 
-This top-rated destination is perfect for Musee lovers. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 08:00-12:00. To get there, use these GPS coordinates: 36.845762788712, 10.320490026064. For more details, visit their website at https://www.facebook.com/ateliergalerie.dart/ or call them at 50 252 299.</t>
+          <t>D'Art Des Metiers De Lella Salha is a museum located in Carthage, Tunisia. It offers a variety of exhibits on the history and culture of the region. The museum is located at 1 Rue Habib Thameur, Site archeologique de Carthage, and is open from 8am to 12pm. The museum's contact information is 50 252 299.</t>
         </is>
       </c>
     </row>
@@ -11702,9 +11634,8 @@
       </c>
       <c r="Y111" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out Palace of Gaiseric located at V83F+7QR Palace of Gaiseric, Carthage. 
-This top-rated destination is perfect for Site historique lovers. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.178689, -94.313919.</t>
+          <t>**Palace of Gaiseric**
+Nestled in the heart of Carthage, Palace of Gaiseric is a historical site that offers a glimpse into the past. Its geographical coordinates are (37.178689, -94.313919), showcasing its unique location. With a rating of 5.0, this destination holds great significance for history enthusiasts.</t>
         </is>
       </c>
     </row>
@@ -11811,7 +11742,7 @@
       </c>
       <c r="Y112" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a top-rated Museum of history, check out Musée national de Carthage located at V83F+7QR Musee national de Carthage, Site archeologique de Carthage. With a rating of 4.2 and 581 reviews, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 36.856104, 10.3249089. For more details, visit their website at https://carthagemagazine.com/carthage-national-museum/ or call them at 58 162 557.</t>
+          <t>The Musee national de Carthage is a simple archaeological museum located in Carthage, Tunisia. It displays statues and pottery discovered during excavations in the region. The museum is located at the address V83F+7QR Musee national de Carthage, Site archeologique de Carthage. Its coordinates are (36.856104, 10.3249089) and it is open daily. The museum has received 581 reviews and has a rating of 4.2 out of 5.</t>
         </is>
       </c>
     </row>
@@ -11914,9 +11845,7 @@
       </c>
       <c r="Y113" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out Dar El Annabi located at Dar El Annabi, 48 Rue Hedi Zarrouk, Site archeologique de Carthage. 
-This top-rated destination is perfect for Site historique lovers and offers a range of Site historique, Musee du patrimoine to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 09:00-18:00. To get there, use these GPS coordinates: 36.870652698522, 10.350747588847.</t>
+          <t>Experience the rich history of Carthage at Dar El Annabi. This historical site offers a glimpse into the past, featuring a captivating museum of heritage. With its convenient location close to the archaeological site of Carthage, Dar El Annabi invites you to delve into the cultural significance of this ancient city. Enjoy the panoramic views from its terraces and immerse yourself in the stories of the past that come to life within these walls.</t>
         </is>
       </c>
     </row>
@@ -12023,7 +11952,7 @@
       </c>
       <c r="Y114" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a trip back in time, check out the Musée national de Carthage located at V83F+7QR, Site archéologique de Carthage. This top-rated destination is perfect for history buffs and offers a range of exhibits to choose from. With a rating of 4.2, it's a must-visit spot. It's open during regular hours, but it's always best to check their website for the most up-to-date information. To get there, use these GPS coordinates: 36.856104, 10.3249089. For more details, visit their website at https://carthagemagazine.com/carthage-national-museum/ or call them at 58 162 557.</t>
+          <t>Musée national de Carthage is a museum in Carthage, Tunisia that presents statues and pottery discovered during excavations in the region. It is located at coordinates (36.856104, 10.3249089).</t>
         </is>
       </c>
     </row>
@@ -12126,7 +12055,7 @@
       </c>
       <c r="Y115" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for something fun to do, check out Dar El Annabi located at 48 Rue Hedi Zarrouk, Site archeologique de Carthage. This top-rated destination is perfect for Site historique lovers and offers a range of Site historique and Musee du patrimoine to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 09:00-18:00. To get there, use these GPS coordinates: 36.870652698522, 10.350747588847. For more details, visit their website at https://www.google.com/maps/place/Dar+El+Annabi/data=!4m7!3m6!1s0x12e2b49e771743cf:0x9d30f7f3e2d2beb6!8m2!3d36.8709673!4d10.3474229!16s%2Fg%2F11f3w6l6p1!19sChIJz0MXd5604hIRtr7S4vP3MJ0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 27 913 088.</t>
+          <t>Dar El Annabi, located in Carthage, Tunisia, is a historical site spread over 5,000 square meters. The site is known for its well-preserved ancient Roman ruins, including baths, cisterns, and a beautiful villa. Visitors can explore the ruins and learn about the history of Carthage. The site also features a museum that houses a collection of artifacts from the Roman period. With its historical significance and beautiful surroundings, Dar El Annabi is a popular destination for tourists and history enthusiasts.</t>
         </is>
       </c>
     </row>
@@ -12233,9 +12162,7 @@
       </c>
       <c r="Y116" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out Musee national de Carthage located at V83F+7QR Musee national de Carthage, Site archeologique de Carthage. 
-This top-rated destination is perfect for Musee d'histoire lovers and offers a range of Musee d'histoire to choose from. 
-With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 36.856104, 10.3249089. For more details, visit their website  at https://carthagemagazine.com/carthage-national-museum/ or call them at 58 162 557.</t>
+          <t>The Musée national de Carthage is an archaeological museum located in Carthage, Tunisia. It houses a collection of artifacts discovered during excavations in the region, including statues, pottery, and mosaics. The museum is open to the public and offers guided tours. It is located at the site of the ancient city of Carthage, which was founded by Phoenician settlers in the 9th century BC and became a major power in the Mediterranean region. The museum's collection includes artifacts from the Phoenician, Roman, and Byzantine periods, as well as from the Islamic period.</t>
         </is>
       </c>
     </row>
@@ -12338,9 +12265,7 @@
       </c>
       <c r="Y117" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a historical site, check out Dar El Annabi located at Dar El Annabi, 48 Rue Hedi Zarrouk, Site archeologique de Carthage. 
-This top-rated destination is perfect for history lovers and offers a range of categories to choose from, including Site historique and Musee du patrimoine. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 09:00-18:00, but closed on []. To get there, use these GPS coordinates: 36.870652698522, 10.350747588847. For more details, visit their website at https://www.google.com/maps/place/Dar+El+Annabi/data=!4m7!3m6!1s0x12e2b49e771743cf:0x9d30f7f3e2d2beb6!8m2!3d36.8709673!4d10.3474229!16s%2Fg%2F11f3w6l6p1!19sChIJz0MXd5604hIRtr7S4vP3MJ0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 27 913 088.</t>
+          <t>Dar El Annabi is a historical site located in Carthage, Tunisia. It is a house-museum that offers a glimpse into the past of the region. With a rating of 4.7 out of 5 stars based on 538 reviews, it is a popular tourist destination. The site offers visitors a chance to learn about the history and culture of Carthage, and to see some of the ruins of the ancient city. It is also a popular spot for taking photos, as it offers stunning views of the surrounding area.</t>
         </is>
       </c>
     </row>
@@ -12447,7 +12372,7 @@
       </c>
       <c r="Y118" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for something fun to do, check out Musée national de Carthage located at V83F+7QR Musee national de Carthage, Site archeologique de Carthage. This top-rated destination is perfect for history museum lovers and offers a range of history museum to choose from. With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 36.856104, 10.3249089. For more details, visit their website at https://carthagemagazine.com/carthage-national-museum/ or call them at 58 162 557.</t>
+          <t>The Musee national de Carthage is a must-see for history buffs visiting Carthage. Located at V83F+7QR, it houses an impressive collection of artifacts discovered during archaeological excavations in the area. Visitors can explore displays of statues, pottery, mosaics, and other relics, offering a glimpse into the rich history and cultural heritage of Carthage.</t>
         </is>
       </c>
     </row>
@@ -12550,9 +12475,7 @@
       </c>
       <c r="Y119" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out Dar El Annabi located at Dar El Annabi, 48 Rue Hedi Zarrouk, Site archeologique de Carthage. 
-This top-rated destination is perfect for Site historique lovers and offers a range of Site historique and Musee du patrimoine to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 09:00-18:00. To get there, use these GPS coordinates: 36.870652698522, 10.350747588847. For more details, visit their website at https://www.google.com/maps/place/Dar+El+Annabi/data=!4m7!3m6!1s0x12e2b49e771743cf:0x9d30f7f3e2d2beb6!8m2!3d36.8709673!4d10.3474229!16s%2Fg%2F11f3w6l6p1!19sChIJz0MXd5604hIRtr7S4vP3MJ0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 27 913 088.</t>
+          <t>Dar El Annabi is a historic site and a heritage museum located in Carthage. Situated at coordinates (36.870652698522, 10.350747588847), it offers a glimpse into the past and the rich cultural heritage of the region. Dar El Annabi is renowned for its beautiful terraces, captivating architecture, and lush gardens. Visitors can immerse themselves in the history of the site, exploring the exhibits and discovering the stories behind the artifacts and architecture. The museum provides a unique and educational experience for families and individuals of all ages, fostering an appreciation for the cultural heritage of Carthage.</t>
         </is>
       </c>
     </row>
@@ -12659,7 +12582,7 @@
       </c>
       <c r="Y120" t="inlineStr">
         <is>
-          <t>If you're in carthage and searching for some historical enrichment, look no further than the Musee national de Carthage, situated at V83F+7QR Musee national de Carthage, Site archeologique de Carthage. Get ready to be mesmerized by centuries of history within its walls, as it's the top spot for history museum enthusiasts. With an astounding 4.2 rating, this destination is a treasure trove of artifacts, including statues and pottery unearthed from nearby excavations. The museum is open daily, eager to welcome history buffs. For more information, explore their website at https://carthagemagazine.com/carthage-national-museum/ or dial 58 162 557. Its GPS coordinates, 36.856104, 10.3249089, will guide you there. Don't miss out on this journey through time at the Musee national de Carthage!</t>
+          <t>Musée National de Carthage is an archaeological museum showcasing an array of statues and pottery unearthed from excavations in the Carthage region. It offers a glimpse into historical remnants with its collection of relics. Located at the coordinates (36.856104, 10.3249089), the museum provides visitors with a captivating experience delving into the rich history and culture of Carthage.</t>
         </is>
       </c>
     </row>
@@ -12762,7 +12685,7 @@
       </c>
       <c r="Y121" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for something fun to do, check out Dar El Annabi located at Dar El Annabi, 48 Rue Hedi Zarrouk, Site archeologique de Carthage. This top-rated destination is perfect for Site historique lovers and offers a range of categories to choose from, including Site historique and Musee du patrimoine. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 09:00-18:00. To get there, use these GPS coordinates: 36.870652698522, 10.350747588847.</t>
+          <t>Dar El Annabi is a historical site and heritage museum in Carthage, Tunisia. It offers a unique insight into the rich history and culture of the region, with a focus on the life and times of the Prophet Muhammad. The site features a beautiful garden, terraces, and a variety of exhibits that showcase the architecture and artifacts of the period. Visitors can also enjoy guided tours and educational programs that delve deeper into the significance of this important historical site.</t>
         </is>
       </c>
     </row>
@@ -12857,11 +12780,7 @@
       </c>
       <c r="Y122" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out Amilcar Beach located at Rue de l'Union, Carthage. 
-This top-rated destination is perfect for Plage lovers and offers a range of Plage to choose from. 
-With a rating of 3.7, it's a must-visit spot. 
-To get there, use these GPS coordinates: 36.862768254287, 10.340410411855. 
-For more details, visit their website at https://www.google.com/maps/place/Amilcar+Beach/data=!4m7!3m6!1s0x12e2b4a30d7af017:0xdcfcaa80e9df05e1!8m2!3d36.86337!4d10.3407033!16s%2Fg%2F11c0r4yvnf!19sChIJF_B6DaO04hIR4QXf6YCq_Nw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Amilcar Beach is a popular beach destination located in Carthage, Tunisia. Situated at coordinates (36.862768254287, 10.340410411855), the beach offers a range of amenities and activities to its visitors. With a rating of 3.7 out of 5, it has received positive reviews from beachgoers. Amilcar Beach is known for its sandy shores, clear waters, and picturesque views. It is also a popular spot for swimming, sunbathing, and water sports. The beach features several restaurants and cafes, providing a convenient option for food and drinks. Additionally, it offers rental services for umbrellas and chairs, allowing visitors to relax and enjoy the sun comfortably.</t>
         </is>
       </c>
     </row>
@@ -12968,7 +12887,8 @@
       </c>
       <c r="Y123" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for something fun to do, check out Baths of Antoninus located at Impasse des Thermes d'Antonin. This top-rated destination is perfect for Site historique lovers and offers a range of Site historique, Thermes, Attraction touristique to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 08:00-17:00. To get there, use these GPS coordinates: 36.8538511, 10.3230624. For more details, visit their website at nan or call them at 94 703 100.</t>
+          <t>The Baths of Antoninus are an ancient Roman bath complex located in Carthage, Tunisia. Built in the 2nd century AD, the baths were once a vast complex with pools, steam rooms, and other amenities. Today, the ruins of the baths are a popular tourist attraction, offering visitors a glimpse into the grandeur of ancient Rome.
+The Baths of Antoninus are located at coordinates (36.8538511, 10.3230624) in the city of Carthage.</t>
         </is>
       </c>
     </row>
@@ -13075,9 +12995,7 @@
       </c>
       <c r="Y124" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for something fun to do, check out Musee national de Carthage at V83F+7QR Musee national de Carthage, Site archeologique de Carthage.
-This top-rated destination is perfect for history museum lovers and offers a range of categories to choose from. 
-With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 36.856104, 10.3249089. For more details, visit their website at https://carthagemagazine.com/carthage-national-museum/ or call them at 58 162 557.</t>
+          <t>The Carthage National Museum is a small archaeological museum in Carthage, Tunisia. It houses a collection of statues, pottery, and other artifacts discovered during excavations in the region. The museum is located on the site of the ancient city of Carthage, which was founded by Phoenician colonists in the 9th century BC and became a major power in the Mediterranean. The museum is open to the public and offers guided tours in English and French.</t>
         </is>
       </c>
     </row>
@@ -13176,7 +13094,7 @@
       </c>
       <c r="Y125" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a historical adventure, visit Port Punique de Carthage, located at Rue du 2 mars 1934, Site archeologique de Carthage. This top-rated destination is perfect for history buffs and offers a range of attractions to explore. With a rating of 4.4, it's a must-visit spot. The main features of the attraction are its historical significance and its rectangular shape. It's open during these hours: 08:30-17:00, but remains closed on unspecified days.</t>
+          <t>Nestled amidst the historic ruins of Carthage, Port Punique de Carthage offers an immersive experience into the maritime heritage of this ancient civilization. Located at the coordinates (37.178689, -94.313919), the port boasts an impressive 4.4-star rating and boasts over 561 reviews. Step into the footsteps of past sailors as you explore the rectangular basins, learn about the naval power that once dominated the Mediterranean, and bask in the tranquility of this enchanting site.</t>
         </is>
       </c>
     </row>
@@ -13279,7 +13197,7 @@
       </c>
       <c r="Y126" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for something fun to do, check out Les Ruines de Carthage located at Impasse des Thermes d'Antonin, Site archeologique de Carthage. This top-rated destination is perfect for history buffs and offers a range of historical sites and ruins to explore. With a rating of 4.7, it's a must-visit spot. It's open 24/7. To get there, use these GPS coordinates: 37.178689, -94.313919. For more details, visit their website at https://blog-tunez.com/ciudades-de-tunez/cartago/.</t>
+          <t>Les Ruines de Carthage is a 4.7-rated historical site in Carthage, Tunisia. It is open 24/7 and is one of the most popular tourist destinations in the area. The ruins are from the ancient city of Carthage, which was founded in 814 BC and was one of the most powerful and prosperous cities in the ancient world. The ruins include temples, palaces, and other buildings, and are a reminder of the city's rich history.</t>
         </is>
       </c>
     </row>
@@ -13378,7 +13296,8 @@
       </c>
       <c r="Y127" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a historical adventure, check out Amphitheatre de Carthage located at V847+CXG Amphitheatre de Carthage, Site archeologique de Carthage. This top-rated destination is perfect for Site historique lovers and offers a range of categories to choose from, including Site historique and Attraction touristique. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 08:00-17:00, but closed on Mondays. To get there, use these GPS coordinates: 36.856104, 10.3249089.</t>
+          <t>**Amphitheater de Carthage**
+The Amphitheater de Carthage is a historical site located in Amphitheatre de Carthage, Site archeologique de Carthage, Tunisia. A renowned tourist attraction, the Amphitheater boasts a rich history and stunning ruins that evoke its grandeur and significance in ancient times. The site remains well-preserved, offering visitors a unique glimpse into the past. The Amphitheater is open for exploration from 8 AM to 5 PM daily, except on Mondays. Immerse yourself in the historical richness and architectural wonders of this significant landmark.</t>
         </is>
       </c>
     </row>
@@ -13477,11 +13396,7 @@
       </c>
       <c r="Y128" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out Site archeologique de Carthage located at Site archeologique de Carthage, 88 Rte de La Goulette, Site archeologique de Carthage. 
-This top-rated destination is perfect for Attraction touristique lovers and offers a range of Attraction touristique, Site historique to choose from. 
-With a rating of 4.4, it's a must-visit spot. 
-To get there, use these GPS coordinates: 44.603207192021, -70.467160588887. 
-For more details, visit their website at http://www.commune-carthage.gov.tn/fr/index.php%3Fsrub%3D261%26rub%3D247</t>
+          <t>The Site archéologique de Carthage is a historical attraction located in Carthage, with a 4.4 rating on Google. This tourist spot provides visitors with a glimpse into history through its ruins and museum, allowing them to explore the rich past of the region.</t>
         </is>
       </c>
     </row>
@@ -13580,12 +13495,7 @@
       </c>
       <c r="Y129" t="inlineStr">
         <is>
-          <t>**Explore the Ancient History of Carthage with Kobba Bent el Rey**
-Nestled in the heart of Carthage, Kobba Bent el Rey is a top-rated destination for history enthusiasts. This archaeological site is a testament to the ancient civilization that once flourished here.
-With a rating of 4.5, Kobba Bent el Rey offers a fascinating glimpse into the past. Its well-preserved ruins, including mosaics, temples, and a Roman villa, reveal the grandeur of the Punic and Roman civilizations.
-For those seeking a unique cultural experience, Kobba Bent el Rey is a must-visit. Explore the site from 9:00 AM to 5:00 PM during weekdays.
-Location: V84J+XJ6, Kobba Bent el Rey, Rte de La Goulette, Site archeologique de Carthage 7016
-GPS Coordinates: 37.1740163, 10.0297964</t>
+          <t>Kobba Bent el Rey is an archaeological site located in Carthage, Tunisia. It features the ruins of a Roman villa with well-preserved mosaics, providing a glimpse into the history and culture of ancient Carthage. The site also offers panoramic views of the Mediterranean Sea.</t>
         </is>
       </c>
     </row>
@@ -13688,7 +13598,7 @@
       </c>
       <c r="Y130" t="inlineStr">
         <is>
-          <t>In carthage, a highly recommended destination is Parc Montazah de Carthage, located at V85F+W95 Parc Montazah de Carthage, Site archeologique de Carthage. As a Parc domanial, it caters to those who enjoy such activities and offers a variety of categories to choose from, including Attraction touristique. With an impressive rating of 4.2 based on 95 reviews, it's a must-visit spot. The site is open 24 hours a day, every day of the week. For further information, please visit their website or call them at 52 788 208.</t>
+          <t>Parc Montazah de Carthage is a public park located in Carthage, Tunisia. This 12-hectare park offers a wide range of amenities, including a children's playground, a fitness trail, and a pond. Open 24h/24, the park is a popular spot for families and tourists alike. It is located at the coordinates (36.856104, 10.3249089), near the V85F+W95 address. The park is highly rated by visitors, with an average rating of 4.2 out of 5 stars.</t>
         </is>
       </c>
     </row>
@@ -13783,9 +13693,7 @@
       </c>
       <c r="Y131" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a fun beach day, head to Amilcar Beach located on Rue de l'Union. 
-This popular destination is perfect for beach lovers. 
-With a rating of 3.7, it's a must-visit spot. To get there, use these GPS coordinates: 36.862768254287, 10.340410411855.</t>
+          <t>Amilcar Beach is a popular seaside destination located in Carthage. Situated at (36.862768254287, 10.340410411855), it provides a place for relaxation and water-based activities. Despite having no official description, it boasts 87 reviews and showcases a featured image that gives a glimpse of what it offers.</t>
         </is>
       </c>
     </row>
@@ -13880,7 +13788,7 @@
       </c>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a spot related to Port, check out Port of Sidi Bou Said. This top-rated destination is perfect for Port lovers and offers a range of Port to choose from. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 36.856104, 10.3249089. For more details, visit their website at https://www.google.com/maps/place/Port+of+Sidi+Bou+Said/data=!4m7!3m6!1s0x12e2b360449ab955:0x160ab9f9cb678529!8m2!3d36.8673351!4d10.3516476!16s%2Fg%2F119wjlk1j!19sChIJVbmaRGCz4hIRKYVny_m5ChY?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Port of Sidi Bou Said is located in Carthage, Tunisia, offering breathtaking sea vistas. Its latitude is 36.856104 and longitude is 10.3249089.</t>
         </is>
       </c>
     </row>
@@ -13975,7 +13883,7 @@
       </c>
       <c r="Y133" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a refreshing spot, check out Carthage Point d'eau. With a rating of 4.6, it's a must-visit destination for water enthusiasts. Located at Carthage, Carthage Point d'eau offers a range of categories to choose from. To get there, use these GPS coordinates: 37.178689, -94.313919.</t>
+          <t>Carthage is a city located at coordinates (37.178689, -94.313919), and offers a variety of attractions and activities. The city is home to many historical landmarks, including the ruins of the ancient city of Carthage. Visitors can also explore the city's many museums, including the Carthage Museum of History and the Carthage Museum of Art. Carthage is also a great place to enjoy the outdoors, with many parks and hiking trails located nearby.</t>
         </is>
       </c>
     </row>
@@ -14070,7 +13978,7 @@
       </c>
       <c r="Y134" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a top-rated Point d'eau, check out Carthage Presidence located at Carthage Presidence. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.8592498, 10.3345661. For more details, visit their website at https://www.google.com/maps/place/Carthage+Présidence/data=!4m7!3m6!1s0x12e2b4af589a5cfb:0xdd3994cdf65e2d31!8m2!3d36.8550711!4d10.3427724!16s%2Fg%2F1hdzynvxs!19sChIJ-1yaWK-04hIRMS1e9s2UOd0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Carthage Presidence is a popular point of interest located in Carthage, Tunisia. It offers a scenic view of the Mediterranean Sea and is a popular destination for tourists and locals alike. The Presidence is also home to a number of restaurants, cafes, and shops, making it a great place to relax and enjoy the surroundings. The Presidence is conveniently located near the city center, making it easy to access from anywhere in Carthage. With its beautiful views, convenient location, and variety of amenities, the Carthage Presidence is a great place to visit for anyone looking to enjoy the best of what Carthage has to offer.</t>
         </is>
       </c>
     </row>
@@ -14165,9 +14073,7 @@
       </c>
       <c r="Y135" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out Amilcar Beach located at Rue de l'Union, Carthage. 
-This top-rated destination is perfect for Plage lovers and offers a range of Plage to choose from. 
-With a rating of 3.7, it's a must-visit spot. It's open during these hours: workday_timing, but closed on closed_on. To get there, use these GPS coordinates: 36.862768254287, 10.340410411855. For more details, visit their website at link or call them at phone.</t>
+          <t>Amilcar Beach offers a pleasant experience with its numerous sun loungers and umbrellas. Located in Carthage, it has a rating of 3.7 and a significant number of reviews (87). It is known for its cleanliness and the quality of its services.</t>
         </is>
       </c>
     </row>
@@ -14262,7 +14168,7 @@
       </c>
       <c r="Y136" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a top-rated watering hole, check out Carthage Presidence, conveniently located at Carthage Presidence. This popular destination is a must-visit spot for water enthusiasts, earning an impressive 4.6 rating. For more details, visit their website at https://www.google.com/maps/place/Carthage+Pr%C3%A9sidence/data=!4m7!3m6!1s0x12e2b4af589a5cfb:0xdd3994cdf65e2d31!8m2!3d36.8550711!4d10.3427724!16s%2Fg%2F1hdzynvxs!19sChIJ-1yaWK-04hIRMS1e9s2UOd0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Carthage Presidence is a renowned water supply point located at (36.8592498, 10.3345661). It boasts an impressive 4.6 rating based on 7 reviews, indicating its exceptional quality.</t>
         </is>
       </c>
     </row>
@@ -14365,9 +14271,7 @@
       </c>
       <c r="Y137" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for something fun to do, check out Golf de Carthage located at Rue 13 Aout, Tunis. 
-This top-rated destination is perfect for Parcours de golf lovers and offers a range of options to choose from, including Parcours de golf, Bar lounge, and Restaurant. 
-With a rating of 4.1, it's a must-visit spot. It's open Monday-Sunday during these hours: 08:00-02:00. To get there, use these GPS coordinates: 36.7930812676, 10.181109255499. For more details, call them at 99 882 398.</t>
+          <t>Golf de Carthage is a par 72 golf course located in Carthage, Tunisia. The course offers stunning views of the Mediterranean Sea and the surrounding countryside. It also features a bar lounge and restaurant. The course is open daily from 08:00 to 02:00.</t>
         </is>
       </c>
     </row>
@@ -14466,7 +14370,7 @@
       </c>
       <c r="Y138" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a great place to play tennis, check out Tennis Club de Carthage. Located at Rue de la Republique, qrTj 2016, this top-rated destination is perfect for tennis lovers and offers a range of courts to choose from. With a rating of 4.2, it's a must-visit spot for anyone looking to hit the courts. To get there, use these GPS coordinates: 36.858097254341, 10.319752278713. For more details, visit their website at https://www.google.com/maps/place/Tennis+Club+de+Carthage/data=!4m7!3m6!1s0x12e2b4b625cab447:0x7da020a59d6aa768!8m2!3d36.8542223!4d10.3277707!16s%2Fg%2F1tz7r0dr!19sChIJR7TKJba04hIRaKdqnaUgoH0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 71 734 129.</t>
+          <t>The Tennis Club de Carthage is a sports club in Carthage, Tunisia. It features tennis courts, a restaurant, and a fitness center. The club is located at Rue de la Republique, qrTj 2016, and its coordinates are 36.858097254341, 10.319752278713. The club has a rating of 4.2 out of 5 stars on Google Maps, based on 31 reviews.</t>
         </is>
       </c>
     </row>
@@ -14569,7 +14473,7 @@
       </c>
       <c r="Y139" t="inlineStr">
         <is>
-          <t>If you're in Carthage looking for a place to unwind, check out Le Perchoir, located at Site archeologique de Carthage. This top-rated bar lounge has a rating of 4.3 and is open weekdays from 5 PM to midnight. To get there, use these GPS coordinates: 36.856104, 10.3249089. For more details, visit their website or call them at +31 323 000.</t>
+          <t>Le Perchoir, located in Carthage, Tunisia, is a 4.3-rated bar lounge. It opens from 5 PM to midnight every day except Sunday. The bar offers a chic and relaxing atmosphere with a featured image showcasing its elegant setting. It is known for its high prices, mentioned in some reviews.</t>
         </is>
       </c>
     </row>
@@ -14672,7 +14576,7 @@
       </c>
       <c r="Y140" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a top-rated Bar lounge, check out Le Perchoir located at V83G+25H Le Perchoir, Site archeologique de Carthage. With a rating of 4.3, it's a must-visit spot, open from 17:00-00:00. Get there using these GPS coordinates: 36.856104, 10.3249089. To get more information, call 31 323 000.</t>
+          <t>Le Perchoir is a bar lounge located in Carthage, Tunisia, with coordinates (36.856104, 10.3249089). It's open from 17:00 to 00:00 on weekdays, but it's closed on Sundays. The bar has a rating of 4.3 out of 5 and is known for its reasonable prices.</t>
         </is>
       </c>
     </row>
@@ -14775,7 +14679,7 @@
       </c>
       <c r="Y141" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a top-notch Sandwicherie, head to Weld El Bey located at V8HH+W3F Weld El Bey, Rue Madagascar, Site archeologique de Carthage 2070. With a rating of 4.2 and 95 reviews, it's a must-visit spot for locals and tourists alike. Weld El Bey is open from 10:00-00:00 and is closed on . For more details, visit their website or call them at 26 341 631.</t>
+          <t>Weld El Bey is a popular sandwicherie located in Carthage, Tunisia, known for its delicious Tunisian street food. It offers a variety of sandwiches and other dishes at affordable prices, making it a great option for a quick and satisfying meal. The sandwicherie is highly rated by customers for its authentic flavors and friendly service. It's conveniently located at V8HH+W3F Weld El Bey, Rue Madagascar, Site archeologique de Carthage 2070, with coordinates (48.756693, 15.9523397).</t>
         </is>
       </c>
     </row>
@@ -14882,9 +14786,7 @@
       </c>
       <c r="Y142" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out Pitagore la marsa located at 12 Rue Imam Abou Hanifa, Site archeologique de Carthage. 
-This top-rated destination is perfect for Restaurant grec lovers and offers a range of Restaurant grec to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 11:00-00:00. To get there, use these GPS coordinates: 36.883607794011, 10.316196731439. For more details, visit their website at https://www.facebook.com/PitagoreTunisie/ or call them at 55 565 796.</t>
+          <t>Pitagore la Marsa is a Greek restaurant located in Carthage. It offers sandwiches, gyros, and other Greek dishes. The restaurant has a rating of 4.2 out of 5 on Google and is open from 11:00 am to 12:00 am. It is located at 12 Rue Imam Abou Hanifa, Site archeologique de Carthage.</t>
         </is>
       </c>
     </row>
@@ -14983,7 +14885,7 @@
       </c>
       <c r="Y143" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out cafe carthage located at 95WC+92J cafe carthage, Redeyef. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on []. To get there, use these GPS coordinates: 34.3842322, 8.1543556. For more details, visit their website at https://www.google.com/maps/place/caf%C3%A9+carthage/data=!4m7!3m6!1s0x12f87331f5af6757:0xdea296841a2b4c27!8m2!3d34.3959593!4d8.1700044!16s%2Fg%2F11gjt5wch9!19sChIJV2ev9TFz-BIRJ0wrGoSWot4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 46 320 191.</t>
+          <t>Cafe Carthage is a highly-rated cafe located in Redeyef at (34.3842322, 8.1543556). It features a rating of 5.0 based on 2 reviews. The cafe opens daily from 06:00-00:00 and offers a great ambiance for enjoying a cup of coffee or tea. Though details about the menu and other amenities are not provided, Cafe Carthage is a popular spot among locals and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -15082,7 +14984,7 @@
       </c>
       <c r="Y144" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a top-notch dining experience, check out bleue! located at 8 Rue Habib Thameur, Carthage 2026. This beloved destination is a must-visit for Restaurant lovers, offering a range of Restaurant, Cafe, and Epicerie fine to choose from. With a stellar rating of 4.8, it's earned its place as a culinary gem. bleue! is open during weekdays from 08:00-15:00, 19:30-01:00, but closed on mercredis. To get there, use these GPS coordinates: 36.845401612504, 10.319843697511.</t>
+          <t>Bleue! is a renowned restaurant nestled in Carthage with a fantastic 4.8 rating based on 302 reviews. They offer a diverse culinary experience as a restaurant, cafe, and epicerie fine. This vibrant establishment opens its doors at 8:00 AM to 3:00 PM and from 7:30 PM to 1:00 AM on all days except Wednesdays.</t>
         </is>
       </c>
     </row>
@@ -15185,7 +15087,7 @@
       </c>
       <c r="Y145" t="inlineStr">
         <is>
-          <t>If you happen to be in carthage and in search for a lovely Restaurant, make sure to visit Chez Weld Moufida at this address: Chez Weld Moufida, 1-15 Imp. Bir Sidi Taieb, Site archeologique de Carthage. This amazing spot has 188 reviews and a rating of 4.7, making it a must-visit destination for those who love Restaurant. It's open daily between 11:00-23:00, so you can plan your visit accordingly. For more information, you can call them at 58 156 757.</t>
+          <t>Chez Weld Moufida is a warmly recommended restaurant in Carthage, Tunisia, offering a typical Tunisian cuisine with a menu that changes every day. The restaurant gets great reviews on its cheap prices, generous portions, and great service.</t>
         </is>
       </c>
     </row>
@@ -15292,7 +15194,7 @@
       </c>
       <c r="Y146" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out Restaurant La Maison La Marsa located at 5 Rue Omar Ibn Abi Rabiaa, Site archeologique de Carthage 2070. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 17:00-00:30. To get there, use these GPS coordinates: 36.881996415035, 10.333882966234. For more details, visit their website at https://lamaison-restaurant.com/ or call them at 51 427 427.</t>
+          <t>Restaurant La Maison La Marsa is a highly rated dining establishment located in Carthage, Tunisia. With a focus on gastronomy and delectable desserts, it offers a memorable dining experience with a warm atmosphere. The restaurant is renowned for its succulent filet, flavorful risotto, and an extensive selection of cocktails. With a team of friendly servers and a renowned chef, Restaurant La Maison La Marsa promises an unforgettable culinary journey in the heart of Carthage.</t>
         </is>
       </c>
     </row>
@@ -15395,9 +15297,7 @@
       </c>
       <c r="Y147" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out Les Indecis located at Les Indecis, Lycee carthage dermech, 4 Rue Hanon, Tunis. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant, Cafe to choose from. 
-With a rating of 4.9, it's a must-visit spot. It's open during these hours: 09:00-17:30, 18:30-00:00, but closed on lundi. To get there, use these GPS coordinates: 36.849087009602, 10.327123715695. For more details, visit their website at https://www.google.com/maps/place/Les+Ind%C3%A9cis/data=!4m7!3m6!1s0x12e2b543ba9f67df:0xac77172a3f5f791!8m2!3d36.8491293!4d10.3272069!16s%2Fg%2F11shsz_vmz!19sChIJ32efukO14hIRkff1o3Jxxwo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 56 574 949.</t>
+          <t>Nestled in the heart of Carthage, Les Indecis is a charming restaurant and café that offers a delightful culinary experience with a 4.9-star rating based on 154 reviews. Open from 9 am to 5:30 pm and 6:30 pm to midnight, it is closed on Mondays. Located at 4 Rue Hanon, this cozy spot boasts a warm and inviting atmosphere with a focus on vegetarian and seafood dishes, including specialties like hummus and tuna. Its unique interior design and vibrant music create an unforgettable dining experience. Les Indecis also caters to those with dietary restrictions, offering a variety of fresh juices and healthy options. With its prime location and excellent reviews, it's a must-visit for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -15504,7 +15404,7 @@
       </c>
       <c r="Y148" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a delicious Greek meal, head to Pitagore la marsa located at 12 Rue Imam Abou Hanifa, Site archeologique de Carthage. This top-rated restaurant is known for its mouth-watering gyros and sandwiches. With a rating of 4.2, it's a must-visit spot for Greek cuisine lovers. It's open from 11:00 AM to midnight, but closed on Fridays. To get there, use these GPS coordinates: 36.883607794011, 10.316196731439. For more details, visit their website at https://www.facebook.com/PitagoreTunisie/ or call them at 55 565 796.</t>
+          <t>Pitagore la marsa, located in Carthage (36.883607794011, 10.316196731439), offers authentic Greek cuisine. With an average rating of 4.2 based on 90 reviews, this restaurant is renowned for its gyros, sandwiches, and feta. The menu is reasonably priced, making it a popular choice among locals and tourists alike. Pitagore la marsa is open seven days a week from 11 AM to midnight.</t>
         </is>
       </c>
     </row>
@@ -15607,7 +15507,7 @@
       </c>
       <c r="Y149" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a great burger, check out ch'men di fir located at 58.av de carthage les jardins de carthage le kram, 1090. This top-rated destination is perfect for burger lovers. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 11:30-00:00. To get there, use these GPS coordinates: 36.8523989, 10.2964231. For more details, visit their website at  or call them at 55 555 802.</t>
+          <t>**ch'men di fir** is a popular hamburger restaurant located at 58.av de carthage les jardins de carthage le kram, 1090 Carthage, Tunisia. Known for its unique concept, ch'men di fir has garnered a 4.3-star rating from reviewers who appreciate its delicious burgers, convenient location, and friendly atmosphere. Open from 11:30 AM to midnight, the restaurant offers a wide variety of burger options to satisfy any craving.</t>
         </is>
       </c>
     </row>
@@ -15706,7 +15606,7 @@
       </c>
       <c r="Y150" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out Bambino located at 9 Rue Kabadou, Site archeologique de Carthage. This top-rated destination is perfect for Restaurant italien lovers and offers a range of Restaurant italien to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 12:00-15:00, 18:00-22:00, but closed on lundi. To get there, use these GPS coordinates: 36.856104, 10.3249089. For more details, visit their website at https://www.google.com/maps/place/Bambino/data=!4m7!3m6!1s0x12e2b5f81d8688a5:0x7f45bf8fe56ff279!8m2!3d36.8852504!4d10.3249495!16s%2Fg%2F11v6dmg_y2!19sChIJpYiGHfi14hIRefJv5Y-_RX8?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Bambino, located in the heart of Carthage, is an authentic Italian restaurant offering a delectable dining experience. With a cozy ambiance and a focus on traditional Italian cuisine, Bambino offers an extensive menu featuring succulent pasta dishes adorned with rich sauces and aromatic truffles. They also serve a wide selection of pizzas, antipasti, and delectable homemade desserts like their renowned tiramisu. Situated near the historical site, Bambino is conveniently located for visitors looking to explore the area while enjoying a memorable meal.</t>
         </is>
       </c>
     </row>
@@ -15813,10 +15713,7 @@
       </c>
       <c r="Y151" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a top-rated dining experience, check out Le Paradis Des Saveurs located at V8MJ+J76 Le Paradis Des Saveurs. 
-This destination is perfect for Restaurant lovers and offers a range of categories to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 11:00-23:45. 
-To get there, use these GPS coordinates: 37.164798999282, -94.310538002434. For more details, visit their website at https://best--restaurants.blogspot.com/ or call them at 20 308 505.</t>
+          <t>**Le Paradis Des Saveurs**, located in Carthage, Tunisia, is a highly-rated restaurant renowned for its delectable cuisine. With its focus on traditional Tunisian flavors, the menu boasts a wide array of dishes, including local seafood specialties, mouthwatering ojja, and delicious pasta creations. The establishment prides itself on using fresh, quality ingredients, ensuring an unforgettable dining experience. Geographically, the restaurant can be found at (37.164798999282, -94.310538002434).</t>
         </is>
       </c>
     </row>
@@ -15915,7 +15812,7 @@
       </c>
       <c r="Y152" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a comfortable stay, head to Villa Carthage in Lotissement Ben Kemla, Lot ndeg25, Face aux residences de Carthage. With a rating of 4.4, this top-rated Chambre d'hotes is a popular choice among travelers. It offers a variety of options, including a Restaurant brunch, Restaurant familial, Restaurant francais, and a refreshing Piscine. For more information, call them at 52 192 086 or check their website (link not provided).</t>
+          <t>Villa Carthage, a charming bed and breakfast with a restaurant serving brunch, family-friendly dining, and classic French cuisine, awaits you in Carthage Maalga, Tunisia. Enjoy a refreshing dip in the outdoor pool and savor the picturesque location at the heart of Carthage, with stunning views and easy access to local attractions.</t>
         </is>
       </c>
     </row>
@@ -16018,7 +15915,7 @@
       </c>
       <c r="Y153" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a great place to eat, check out Ayutthaya located at 15 Route, Site archeologique de Carthage 2070. This top-rated restaurant is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 12:00-23:00, but closed on mercredi. To get there, use these GPS coordinates: 36.856104, 10.3249089. For more details, visit their website at https://www.google.com/maps/place/Ayutthaya/data=!4m7!3m6!1s0x12e2b48e78baaa03:0xd51a0d482a2c6e3c!8m2!3d36.8808357!4d10.3329946!16s%2Fg%2F11c2nz753b!19sChIJA6q6eI604hIRPG4sKkgNGtU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 99 210 074.</t>
+          <t>**Ayutthaya** is a restaurant located in Carthage, Tunisia (lat: 36.856104, lon: 10.3249089). It is known for its affordable prices and is open daily except Wednesdays. The restaurant is located at 15 Route, Site archeologique de Carthage 2070.</t>
         </is>
       </c>
     </row>
@@ -16121,7 +16018,9 @@
       </c>
       <c r="Y154" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a top-rated destination for Restaurant lovers, check out restaurant valentino located at restaurant valentino, Carthage dermech, Lycee carthage dermech, 5 rue echmoun, Site archeologique de Carthage 2016. It offers a range of Restaurant categories to choose from and has a rating of 4.1. It's open during these hours: 12:00-15:00, 18:30-22:30, but closed on dimanche. To get there, use these GPS coordinates: 36.8538511, 10.3230624. For more details, visit their link at .</t>
+          <t>Restaurant Valentino is a culinary haven located at the heart of Carthage, Tunisia. With a rating of 4.1 and a wide variety of cuisines catering to discerning palates, the restaurant is a popular destination for both locals and tourists alike.
+Nestled in the historic Lycee Carthage Dermech, Restaurant Valentino offers a captivating dining experience within the stunning backdrop of the Site Archeologique de Carthage, immersing guests in the region's rich cultural tapestry. The restaurant specializes in delectable pizzas, as evidenced by its numerous positive reviews.
+Open six days a week, Restaurant Valentino is a vibrant hub of culinary delights. Whether it's a leisurely lunch or an enchanting dinner, the restaurant's warm and inviting ambiance, coupled with its prime location, makes it an ideal choice for those seeking an exceptional dining experience.</t>
         </is>
       </c>
     </row>
@@ -16224,7 +16123,7 @@
       </c>
       <c r="Y155" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out Restaurant Best Friend at 10 Rue Pline, Site archeologique de Carthage. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 12:00-00:00, but closed on dimanche. To get there, use these GPS coordinates: 37.178689, -94.313919. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Best+Friend/data=!4m7!3m6!1s0x12e2b574ebfb72d1:0xef3c8ed52891c3f9!8m2!3d36.8485344!4d10.3274026!16s%2Fg%2F11s5sz6dhz!19sChIJ0XL763S14hIR-cORKNWOPO8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 93 822 870.</t>
+          <t>Restaurant Best Friend, located in Carthage at 10 Rue Pline, is a popular dining destination with a 4.4-star rating based on 45 reviews. Operating from 12 pm to midnight daily, the restaurant is closed on Sundays. Its menu includes a variety of dishes at affordable prices, as mentioned in several reviews. Situated at the coordinates (37.178689, -94.313919), Restaurant Best Friend offers a convenient dining experience in the heart of Carthage.</t>
         </is>
       </c>
     </row>
@@ -16327,7 +16226,7 @@
       </c>
       <c r="Y156" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a great place to eat, check out Breath - Salad Bar located at V8CG+P3V Breath - Salad Bar, Rue Imam Malek, Site archeologique de Carthage. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 12:00-23:00. To get there, use these GPS coordinates: 37.178689, -94.313919. For more details, visit their website at  or call them at 56 224 996.</t>
+          <t>Breath - Salad Bar, located in Carthage at 37.178689, -94.313919, is a restaurant that serves a variety of fresh and healthy salad options. With a rating of 4.2 out of 5 stars, it is a popular spot for lunch and dinner. The restaurant is open from 12:00pm to 11:00pm every day of the week.</t>
         </is>
       </c>
     </row>
@@ -16430,8 +16329,7 @@
       </c>
       <c r="Y157" t="inlineStr">
         <is>
-          <t>If you are in carthage and looking for a great Restaurant familial, check out Restaurant El Bey located at V8CP+5JC Restaurant El Bey, Rue Salaheddine Bouchoucha.
-This top-rated destination offers a range of categories to choose from. With a rating of 4.9, it's a must-visit spot. It's open during these hours: 08:00-23:30, but closed on none. To get there, use these GPS coordinates: 36.868703142383, 10.335121657767. For more details, visit their website at https://instagram.com/resto.el.bey</t>
+          <t>The Restaurant El Bey is a family restaurant located in Carthage, Tunisia. It serves both locals and tourists alike. The restaurant offers a wide variety of dishes at a reasonable price. It also gives you the opportunity to visit the city of Carthage with its historical sites.</t>
         </is>
       </c>
     </row>
@@ -16534,7 +16432,7 @@
       </c>
       <c r="Y158" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out NANOOSH located at V8MJ+6FX NANOOSH, Site archeologique de Carthage. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 12:00-21:30, but closed on dimanche. To get there, use these GPS coordinates: 36.856104, 10.3249089. For more details, visit their website at  or call them at 52 330 320.</t>
+          <t>NANOOSH, located at Site archeologique de Carthage, is the perfect spot to grab a bite. With a focus on sandwiches, NANOOSH offers a variety of mouthwatering options. Its sauces are highly praised by reviewers, adding an extra layer of flavor to each dish. NANOOSH is conveniently located near the city center, making it easy to access.</t>
         </is>
       </c>
     </row>
@@ -16637,7 +16535,7 @@
       </c>
       <c r="Y159" t="inlineStr">
         <is>
-          <t>If you're in Carthage and craving delicious pizzas, head to L'Atelier du Pizzaiolo at 2 Rue Pline, Site archeologique de Carthage 2016. This top-rated pizzeria has a rating of 4.7 and is open from 12:00 PM to 11:00 PM (closed on Sundays). It's a must-visit spot for pizza lovers, offering a range of options to choose from. For more details, visit their website or call them at 54 444 582.</t>
+          <t>L'Atelier du Pizzaiolo in Carthage is a highly-rated pizzeria that serves delicious pizzas. It is located at 2 Rue Pline, Site archeologique de Carthage 2016. The restaurant is open from 12:00 to 23:00, and is closed on Sundays. With a 4.7 rating from 18 reviews, it is sure to offer a great dining experience.</t>
         </is>
       </c>
     </row>
@@ -16744,7 +16642,7 @@
       </c>
       <c r="Y160" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a top-notch Pizzeria, check out Dai Pazzi by DaPietro at 11 Rue du Maroc, Site archeologique de Carthage. This highly-rated spot boasts a 4.7 rating and is beloved by locals and tourists alike. Open from 11:00-22:30, Dai Pazzi by DaPietro is a must-visit destination for pizza enthusiasts. For more details, visit their website at https://www.facebook.com/Dai-Pazzi-by-DaPietro-103645768454579/ or call them at 29 847 718.</t>
+          <t>Dai Pazzi by DaPietro, located at 11 Rue du Maroc, Site archeologique de Carthage (coordinates: 37.178689, -94.313919), is a Pizzeria rated 4.7 out of 5 stars based on 15 reviews. It offers a wide range of pizza options and its services are available from 11:00 AM to 10:30 PM.</t>
         </is>
       </c>
     </row>
@@ -16847,11 +16745,7 @@
       </c>
       <c r="Y161" t="inlineStr">
         <is>
-          <t>If you're in Carthage, La tostada is a highly-rated Restaurant located at Residence el montazah, Site archeologique de Carthage. 
-This top-rated destination has a rating of 4.9! 
-It's a must-visit spot and is open during these hours: 10:00-22:00. 
-To plan your visit, you can use these GPS coordinates: 37.178689, -94.313919. 
-For more information, you can visit their website or call them at 23 201 085.</t>
+          <t>La Tostada is a restaurant located in Carthage, Tunisia. It has a rating of 4.9 stars on Google, and is open from 10:00-22:00. The restaurant's main category is Restaurant, and it offers a variety of dishes, including traditional Tunisian cuisine. La Tostada is located at 36.8523183 latitude and 10.2945733 longitude.</t>
         </is>
       </c>
     </row>
@@ -16950,7 +16844,7 @@
       </c>
       <c r="Y162" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a great dining experience, check out Oceana located at V89V+XG7 Oceana, Unnamed Road, Carthage. This top-rated destination offers a range of Restaurant to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 08:30-01:15. To get there, use these GPS coordinates: 37.178689, -94.313919. For more details, visit their website at https://www.google.com/maps/place/Oc%C3%A9ana/data=!4m7!3m6!1s0x12e2b5fa60a5ee09:0x559b831b8dac0b01!8m2!3d36.869916!4d10.3438089!16s%2Fg%2F11h353vdlj!19sChIJCe6lYPq14hIRAQusjRuDm1U?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Oceana is a restaurant located in Carthage, Missouri. It offers a variety of dishes and has a rating of 4.1 out of 5 stars. The restaurant is open from 8:30am to 1:15am and is closed on Thanksgiving and Christmas. It is located at 37.178689, -94.313919.</t>
         </is>
       </c>
     </row>
@@ -17053,7 +16947,7 @@
       </c>
       <c r="Y163" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out Splash The Fresh Bar located at 11 Rue du 2 mars 1934, Site archeologique de Carthage. This top-rated destination is perfect for food lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 15:00-00:00, but closed on dimanche. To get there, use these GPS coordinates: 36.834714518317, 10.318472669608. For more details, visit their website at https://www.google.com/maps/place/Splash+The+Fresh+Bar/data=!4m7!3m6!1s0x12fd4b3450daf8c5:0x6e67472092bbd598!8m2!3d36.8452355!4d10.3226967!16s%2Fg%2F11dxh_39sz!19sChIJxfjaUDRL_RIRmNW7kiBHZ24?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 53 149 000.</t>
+          <t>Splash The Fresh Bar is a 5-star rated restaurant located in Carthage (36.834714518317, 10.318472669608). It offers a wide variety of fresh and healthy food options, and is open from 15:00 to 00:00 every day except Sunday. Splash The Fresh Bar is a great place to enjoy a delicious and healthy meal with friends or family.</t>
         </is>
       </c>
     </row>
@@ -17148,10 +17042,7 @@
       </c>
       <c r="Y164" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a top-rated restaurant, check out La villa located at V993+X22. 
-This restaurant is perfect for Restaurant de grillades lovers. 
-With a rating of 5.0, it's a must-visit spot. 
-To get there, use these GPS coordinates: 43.98444, -75.60241. For more details, visit their website at https://www.google.com/maps/place/La+villa/data=!4m7!3m6!1s0x12e2b37856151361:0xc664fd1bf133bc63!8m2!3d36.870029!4d10.352352!16s%2Fg%2F11t48fl_58!19sChIJYRMVVniz4hIRY7wz8Rv9ZMY?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>**La villa** is a 5-star rated Grilled meat restaurant located in Carthage.</t>
         </is>
       </c>
     </row>
@@ -17250,9 +17141,7 @@
       </c>
       <c r="Y165" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a great dining experience, check out Bombi Food(balomba) located at R8Q5+W42 Bombi Food(balomba), Av. Farhat Hached, Site archeologique de Carthage. 
-This top-rated restaurant is perfect for all food lovers and offers a range of cuisines to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 36.839568897541, 10.323128900641. For more details, visit their website at https://www.google.com/maps/place/Bombi+Food%28balomba%29/data=!4m7!3m6!1s0x12fd4b007d0f84e7:0x495758206fa549d1!8m2!3d36.839766!4d10.3079096!16s%2Fg%2F11y3j57k7z!19sChIJ54QPfQBL_RIR0UmlbyBYV0k?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 928 211.</t>
+          <t>Bombi Food is a restaurant located in Carthage, Tunisia. It offers a variety of dishes, including local and international cuisine. The restaurant is open 24 hours a day and is located at R8Q5+W42, Av. Farhat Hached, Site archeologique de Carthage, with coordinates (36.839568897541, 10.323128900641).</t>
         </is>
       </c>
     </row>
@@ -17355,7 +17244,7 @@
       </c>
       <c r="Y166" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a top-rated Restaurant libanais, visit Urban Food &amp; Juicery at 11 Rue du 2 mars 1934, Site archeologique de Carthage. With a 5.0 rating, it's a must-try spot, open from 12:00-21:00. Closed on Sundays. To get there, use these GPS coordinates: 37.070434, -111.648335. For more details, visit their website at http://www.urban-catering.tn/.</t>
+          <t>Urban Food &amp; Juicery is a Lebanese restaurant located in Carthage, Tunisia. It is open from noon to 9 p.m. every day except Sunday. The restaurant has a 5.0 rating on Google and offers a variety of Lebanese dishes. It is located at 11 Rue du 2 mars 1934, Site archeologique de Carthage.</t>
         </is>
       </c>
     </row>
@@ -17454,7 +17343,7 @@
       </c>
       <c r="Y167" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for something fun to do, check out El Bey le restaurant located at Rue Madagascar, Carthage. This top-rated destination is perfect for Restaurant tunisien lovers and offers a range of Restaurant tunisien to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 12:00-09:00, but closed on Mondays. To get there, use these GPS coordinates: 37.178689, -94.313919.</t>
+          <t>El Bey le restaurant is a Tunisian restaurant located in Carthage, Tunisia. It is open from 12:00 to 09:00 from Tuesday to Sunday, and closed on Mondays. The restaurant has a rating of 5.0 out of 5 stars based on 2 reviews. It is located at the coordinates (37.178689, -94.313919).</t>
         </is>
       </c>
     </row>
@@ -17557,7 +17446,7 @@
       </c>
       <c r="Y168" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out Authentique located at Rue du Sapin, Site archeologique de Carthage. This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-21:00, To get there, use these GPS coordinates: 37.178689, -94.313919. For more details, visit their website at https://www.google.com/maps/place/Authentique/data=!4m7!3m6!1s0x12e2b4931ea938d5:0x7dc1fae78159c120!8m2!3d36.8759252!4d10.3290729!16s%2Fg%2F11gf5ybllc!19sChIJ1TipHpO04hIRIMFZgef6wX0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 912 095.</t>
+          <t>Authentique is a highly rated restaurant located in Carthage, Tunisia. Known for its authentic and delicious cuisine, it's a great place to visit with a group of friends or family. Located at the coordinates (37.178689, -94.313919), it's easily accessible and offers a warm and inviting atmosphere. With a 5.0 rating, you can be sure to have an amazing dining experience at Authentique.</t>
         </is>
       </c>
     </row>
@@ -17656,7 +17545,7 @@
       </c>
       <c r="Y169" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out Restaurant Weld ben Hadj located at Rue Naceur Bey, Site archeologique de Carthage. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on []. To get there, use these GPS coordinates: 37.178689, -94.313919.</t>
+          <t>Nestled in the heart of Carthage, Tunisia, Restaurant Weld ben Hadj offers a tantalizing culinary experience. Rated 4.0 out of 5 stars, it specializes in delectable cuisine, tantalizing taste buds with a symphony of flavors. Situated at the convenient coordinates of (37.178689, -94.313919), the restaurant welcomes diners from dawn till midnight, nurturing their appetites with culinary delights.</t>
         </is>
       </c>
     </row>
@@ -17759,7 +17648,7 @@
       </c>
       <c r="Y170" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a top-rated dining experience, check out Les Indecis located at 4 Rue Hanon, Lycee carthage dermech. This must-visit spot is perfect for Restaurant and Cafe lovers, with a rating of 4.9 out of 5. It's open during these hours: Monday-Friday: 09:00-17:30, 18:30-00:00; Saturday-Sunday: 09:00-00:00. To get there, use these GPS coordinates: 36.849087009602, 10.327123715695. For more details, call them at 56 574 949.</t>
+          <t>Les Indécis is a restaurant and café located in Carthage, Tunisia. It is known for its vegetarian-friendly menu, as well as its cozy atmosphere and live music. The restaurant has received positive reviews for its food, service, and ambiance, and is a popular spot for both locals and tourists. It is located on 4 Rue Hanon, in the Lycée Carthage Dermech, and is open from 9:00 AM to 5:30 PM and 6:30 PM to midnight, Tuesday through Sunday.</t>
         </is>
       </c>
     </row>
@@ -17854,7 +17743,7 @@
       </c>
       <c r="Y171" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out Cafe Carthage located at M5M3+QCC Cafe Carthage, Mohammedia. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Cafe+Carthage/data=!4m7!3m6!1s0x12fd3a0e9dc8e687:0xdf7186c649571610!8m2!3d36.6844493!4d10.1535207!16s%2Fg%2F11gfdq4_58!19sChIJh-bInQ46_RIREBZXScaGcd8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Cafe Carthage is a highly-rated cafe located in Mohammedia, Morocco. It offers a cozy and inviting atmosphere, perfect for a relaxing cup of coffee or a bite to eat. The cafe's convenient location makes it an ideal spot to take a break from exploring the city or to meet up with friends or colleagues.</t>
         </is>
       </c>
     </row>
@@ -17957,7 +17846,7 @@
       </c>
       <c r="Y172" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a delicious dining experience, check out Restaurant Carthage Beach, located at VJ85+782 Hammam Sousse. This top-rated seafood restaurant offers a range of delectable dishes sure to satisfy any seafood lover. With a rating of 4.4, it's a must-visit spot. It's open daily from 11:00 am to 1:00 am. To get there, use these GPS coordinates: 35.8612513, 10.6018935. For more details, visit their website or call them at 73 325 102.</t>
+          <t>Restaurant Carthage Beach is a local seafood restaurant and bar located in Hammam Sousse, Tunisia. The establishment has a 4.4-star rating out of 73 reviews and is known for its beer options. The restaurant is open from 11:00 AM to 1:00 AM and is located at the coordinates (35.8612513, 10.6018935).</t>
         </is>
       </c>
     </row>
@@ -18060,7 +17949,7 @@
       </c>
       <c r="Y173" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out ch'men di fir located at ch'men di fir, 58.av de carthage les jardins de carthage le kram, 1090. This top-rated destination is perfect for Restaurant de hamburgers lovers and offers a range of Restaurant de hamburgers to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 11:30-00:00, but closed on . To get there, use these GPS coordinates: 36.8523989, 10.2964231. For more details, visit their website at  or call them at 55 555 802.</t>
+          <t>**ch'men di fir** is a popular hamburger joint located at ch'men di fir, 58.av de carthage les jardins de carthage le kram, 1090. Boasting a 4.3-star rating based on 80 reviews, the restaurant is open from 11:30 to midnight and offers a mouth-watering menu of classic and creative burgers. With its convenient location and focus on quality ingredients and unique flavors, ch'men di fir is a favorite among locals and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -18155,7 +18044,7 @@
       </c>
       <c r="Y174" t="inlineStr">
         <is>
-          <t>If you're visiting Carthage and looking for a top-rated destination, Sidi-Bou-Said is worth exploring. Located in the heart of Carthage, it's a 4.5-star spot that caters to railway enthusiasts. This well-known tourist destination boasts a scenic location overlooking the sea and offers a cozy cafe for refreshments. With its prime location and impressive rating, Sidi-Bou-Said is a must-visit spot. To get there, you can use the GPS coordinates: 36.856104, 10.3249089.</t>
+          <t>Sidi-Bou-Said is a train station located in Carthage, Tunisia. It has a rating of 4.5/5 based on 106 reviews, and is a popular tourist destination due to its proximity to the sea. The station offers a variety of amenities, including a cafe and a tour desk.</t>
         </is>
       </c>
     </row>
@@ -18250,9 +18139,7 @@
       </c>
       <c r="Y175" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a Gare, check out Carthage Hannibal located at Site archeologique de Carthage. 
-This Gare has 33 reviews and is rated 3.8, making it a must-visit spot for Gare lovers. 
-To get there, use these GPS coordinates: 36.856104, 10.3249089. For more details, visit their website at https://www.google.com/maps/place/Carthage+Hannibal/data=!4m7!3m6!1s0x12e2b4b66b3f8ab5:0xa7443cd4d6f69221!8m2!3d36.853423!4d10.3289416!16s%2Fg%2F1tjzmtkt!19sChIJtYo_a7a04hIRIZL21tQ8RKc?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Carthage Hannibal is a historical site located in Carthage, Tunisia, with coordinates (36.856104, 10.3249089). The site is dedicated to the famous Carthaginian general, Hannibal, and is a popular destination for history enthusiasts and tourists.</t>
         </is>
       </c>
     </row>
@@ -18347,7 +18234,7 @@
       </c>
       <c r="Y176" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a reliable mode of transportation, Station TGM "La Marsa" is a top-rated destination. Located at Station TGM "La Marsa ", Site archeologique de Carthage, this station provides convenient access to the city's metro system. With a rating of 4.5, it's a must-visit spot for those seeking a quick and efficient way to get around Carthage. To get there, you can use the following GPS coordinates: 36.856104, 10.3249089. For more details, visit the station's website or contact them directly.</t>
+          <t>**Station TGM "La Marsa"** is a highly-rated (4.5 stars) metro station located in Carthage, Tunisia. With 21 reviews, the station offers a convenient way to explore the area. Its exact coordinates are (36.856104, 10.3249089). Unfortunately, no additional information or website is currently available.</t>
         </is>
       </c>
     </row>
@@ -18446,7 +18333,7 @@
       </c>
       <c r="Y177" t="inlineStr">
         <is>
-          <t>If you find yourself in carthage and seeking an enjoyable experience, visit OLA La Marsa situated at V8GG+C7G OLA La Marsa, P9, Site archeologique de Carthage. This highly-rated destination caters to Station-service enthusiasts and provides a variety of options. Boasting a rating of 3.7, it's a popular spot you shouldn't miss. The establishment operates 24 hours a day, and its coordinates are 36.856104, 10.3249089. For further information, their website can be found at https://www.google.com/maps/place/OLA+La+Marsa/data=!4m7!3m6!1s0x12e2b4ece6df07f3:0x3cb70528133724b3!8m2!3d36.8760673!4d10.3257016!16s%2Fg%2F1td3_pt6!19sChIJ8wff5uy04hIRsyQ3EygFtzw?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>OLA La Marsa, a 24-hour gas station, offers convenient refueling services for travelers and locals alike. Located in the vicinity of the historic Site archéologique de Carthage, the station provides easy access to fuel and other essential amenities for those exploring the area.</t>
         </is>
       </c>
     </row>
@@ -18541,7 +18428,7 @@
       </c>
       <c r="Y178" t="inlineStr">
         <is>
-          <t>If you happen to be in Carthage and are seeking some amusement, consider visiting Marsa Ville, conveniently located in Carthage. Earning an impressive rating of 4.1, this top-rated venue is particularly appealing to Arret de bus enthusiasts. With 11 positive reviews, it's undoubtedly a spot worth exploring. For further details, check out their website or contact them directly.</t>
+          <t>Marsa Ville is a well-rated bus stop in Carthage, Tunisia. It has a 4.1-star rating and 11 reviews. The bus stop is open 24 hours a day, 7 days a week. It is located at (36.87400526849, 10.325170811242).</t>
         </is>
       </c>
     </row>
@@ -18636,7 +18523,7 @@
       </c>
       <c r="Y179" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out Sidi Dhrif located at Sidi Dhrif, Site archeologique de Carthage. This top-rated destination is perfect for Gare lovers and offers a range of Gare to choose from. With a rating of 3.9, it's a must-visit spot. It's open during these hours:, but closed on []. To get there, use these GPS coordinates: 36.856104, 10.3249089. For more details, visit their website at .</t>
+          <t>Sidi Dhrif is a train station located in the city of Carthage, Tunisia. It is situated at the coordinates (36.856104, 10.3249089). Sidi Dhrif offers rail services to travelers and is accessible via the following link: https://www.google.com/maps/place/Sidi+Dhrif/data=!4m7!3m6!1s0x12e2b49a8ddbcfa3:0x27eed78e18a2174d!8m2!3d36.8758594!4d10.3396402!16s%2Fg%2F1tf4h3hp!19sChIJo8_bjZq04hIRTReiGI7X7ic?authuser=0&amp;hl=fr&amp;rclk=1.</t>
         </is>
       </c>
     </row>
@@ -18731,7 +18618,7 @@
       </c>
       <c r="Y180" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a way to get around, check out Station TGM "SIDI BOU SAID." This top-rated spot is perfect for anyone who needs to use public transportation and is a must-visit spot for those who want to experience the local way of life. It's open during regular hours, but it's always best to check their website or call them for more details. To get there, use these GPS coordinates: 36.856104, 10.3249089.</t>
+          <t>Station TGM "SIDI BOU SAID" is a metro station in Carthage, Tunisia. It is conveniently situated at the archaeological site of Carthage. This well-rated station (3.8/5) offers easy access to the fascinating historical ruins of Carthage, providing visitors with an immersive experience as they explore the rich heritage of the ancient city.</t>
         </is>
       </c>
     </row>
@@ -18826,9 +18713,7 @@
       </c>
       <c r="Y181" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out Carthage Presidence. 
-This top-rated destination is perfect for Gare lovers. 
-With a rating of 3.7, it's a must-visit spot. To get there, use these GPS coordinates: 36.856104, 10.3249089. For more details, visit their website at https://www.google.com/maps/place/Carthage+Pr%C3%A9sidence/data=!4m7!3m6!1s0x12e2b4bb9038bc67:0xa9eb77531e15144a!8m2!3d36.8616659!4d10.3349402!16s%2Fg%2F1tqvx8vn!19sChIJZ7w4kLu04hIRShQVHlN366k?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Carthage Presidence is a train station located at the archeological site of Carthage in Tunisia, with the geographical coordinates (36.856104, 10.3249089). It offers train services for passengers and has received a rating of 3.7 based on 9 reviews.</t>
         </is>
       </c>
     </row>
@@ -18923,9 +18808,7 @@
       </c>
       <c r="Y182" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out Carthage Amilcar located at Rue du Maroc, Carthage. 
-This top-rated destination is perfect for Compagnie ferroviaire metropolitaine lovers and offers a range of Compagnie ferroviaire metropolitaine to choose from. 
-With a rating of 3.9, it's a must-visit spot. To get there, use these GPS coordinates: 36.854094987202, 10.310224122512.</t>
+          <t>Carthage Amilcar (proprietaire) is a metropolitan railway company located at Rue du Maroc, Carthage with coordinates (36.854094987202, 10.310224122512). It has a rating of 3.9 based on 7 reviews and offers a range of services related to metropolitan railway transportation.</t>
         </is>
       </c>
     </row>
@@ -19020,9 +18903,7 @@
       </c>
       <c r="Y183" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for something fun to do, check out Station TGM Sidi Dhrif located at Station TGM Sidi Dhrif, Site archeologique de Carthage. 
-This top-rated destination is perfect for Station de metro lovers and offers a range of categories to choose from. 
-With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 36.856104, 10.3249089.</t>
+          <t>Station TGM Sidi Dhrif is a metro station located in the city of Carthage, Tunisia. It is part of the TGM (Tunis-Goulette-Marsa) metro line and serves the Sidi Dhrif district. The station is located at the coordinates 36.856104, 10.3249089. It offers convenient transportation for residents and visitors in the area.</t>
         </is>
       </c>
     </row>
@@ -19117,7 +18998,7 @@
       </c>
       <c r="Y184" t="inlineStr">
         <is>
-          <t>If you find yourself in carthage searching for some fun, visit Terminus 52 Carthage Presidence, located at Rte de La Goulette. It's a top-rated Arret de bus spot, offering a range of categories to pick from. Rated 4.0 out of 5, it's a must-visit. Use these coordinates to get there: 36.8592498, 10.3345661.</t>
+          <t>Terminus 52 Carthage Presidence is a bus stop in Carthage, Tunisia. It is located at the intersection of Rte de La Goulette and Carthage Presidence. The bus stop is served by several bus lines, including the 52 and 113. The bus stop is also located near the Carthage Land archeological site and the Carthage Museum.</t>
         </is>
       </c>
     </row>
@@ -19212,7 +19093,7 @@
       </c>
       <c r="Y185" t="inlineStr">
         <is>
-          <t>Sidi-Bou-Said is a top-rated destination for Gare lovers in Carthage. Located at Sidi-Bou-Said, Site archeologique de Carthage, it offers a rating of 4.5. With 106 reviews, it's a must-visit spot. The GPS coordinates are (36.856104, 10.3249089).</t>
+          <t>Sidi-Bou-Said is a railway station located in the archaeological site of Carthage, in Tunisia. It is part of the main category of railway stations and offers services related to rail transportation. The station is well-rated by users, with an average rating of 4.5. It is known for its touristic appeal and proximity to the sea. Despite being located in an archaeological area, it is primarily a transportation hub and does not have any specific historical or cultural significance.</t>
         </is>
       </c>
     </row>
@@ -19307,7 +19188,7 @@
       </c>
       <c r="Y186" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a Gare, check out Carthage Hannibal located at Carthage Hannibal, Site archeologique de Carthage. This top-rated destination is perfect for Gare lovers and offers a range of Gare to choose from. With a rating of 3.8, it's a must-visit spot. To get there, use these GPS coordinates: 36.856104, 10.3249089. For more details, visit their website at https://www.google.com/maps/place/Carthage+Hannibal/data=!4m7!3m6!1s0x12e2b4b66b3f8ab5:0xa7443cd4d6f69221!8m2!3d36.853423!4d10.3289416!16s%2Fg%2F1tjzmtkt!19sChIJtYo_a7a04hIRIZL21tQ8RKc?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>**Carthage Hannibal** is a railway station situated in the archaeological site of Carthage, offering convenient transportation options for exploring the historical ruins and attractions of the ancient city. Located at coordinates (36.856104, 10.3249089), the station provides easy access to the site's significant landmarks and cultural heritage.</t>
         </is>
       </c>
     </row>
@@ -19402,7 +19283,7 @@
       </c>
       <c r="Y187" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a reliable Station de metro, check out Station TGM "La Marsa " located at Station TGM "La Marsa ", Site archeologique de Carthage. With a rating of 4.5 based on 21 reviews, it's a must-visit spot. To get there, use these GPS coordinates: 36.856104, 10.3249089. For more details, visit their website at https://www.google.com/maps/place/Station+TGM+%22La+Marsa+%22/data=!4m7!3m6!1s0x12e2b48ea5a5ba65:0xd2e2231e6ea4d960!8m2!3d36.883049!4d10.3334463!16s%2Fg%2F1hc5dmth9!19sChIJZbqlpY604hIRYNmkbh4j4tI?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>The Station TGM "La Marsa" is a metro station located in Carthage. It has a rating of 4.5 stars out of 21 reviews, and it offers services such as trains and a main category of "Station de metro". The station is also close to the Site archeologique de Carthage, which is a popular tourist destination.</t>
         </is>
       </c>
     </row>
@@ -19501,7 +19382,7 @@
       </c>
       <c r="Y188" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a great gas station, check out AGIL located at V8CR+JP6 AGIL, Site archeologique de Carthage. With a rating of 4.3, it's a top-rated destination for Station-service lovers. It's open during these hours: 06:30-22:00. To get there, use these GPS coordinates: 36.856104, 10.3249089. For more details, visit their website at https://lh5.googleusercontent.com/p/AF1QipONeGnIGssz3p0Y8-fkpnx_6PYwS1h9eoeannGy=w408-h544-k-no.</t>
+          <t>AGIL is a gas station located in Carthage, Tunisia. It's open daily from 6:30 AM to 10:00 PM and offers a range of services, including fuel, lubricants, and car washes. AGIL is known for its friendly staff and convenient location. The station is situated at the intersection of two major roads, making it easily accessible from all parts of the city.</t>
         </is>
       </c>
     </row>
@@ -19596,7 +19477,7 @@
       </c>
       <c r="Y189" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a place to rest your feet, head over to Marsa Ville located at Marsa Ville, Carthage. This top-rated bus stop has a rating of 4.1 and is a must-visit spot. It's open during weekdays, but closed on weekends. To get there, use these GPS coordinates: 36.87400526849, 10.325170811242.</t>
+          <t>Marsa Ville is a popular bus stop in Carthage, Tunisia. It is conveniently located near the city center and offers easy access to public transportation. The stop is well-maintained and has a high rating of 4.1 out of 5 stars.</t>
         </is>
       </c>
     </row>
@@ -19691,7 +19572,7 @@
       </c>
       <c r="Y190" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for something fun to do, check out Sidi Dhrif located at Sidi Dhrif, Site archeologique de Carthage. This top-rated destination is perfect for Gare lovers and offers a range of Gare to choose from. With a rating of 3.9, it's a must-visit spot. To get there, use these GPS coordinates: 36.856104, 10.3249089.</t>
+          <t>Sidi Dhrif is a train station located in the city of Carthage, Tunisia. It offers train services and is a convenient transportation hub for the city and its surroundings. The station is situated at (36.856104, 10.3249089), making it easily accessible from various parts of the city.</t>
         </is>
       </c>
     </row>
@@ -19786,7 +19667,7 @@
       </c>
       <c r="Y191" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a convenient way to travel, check out Station TGM "SIDI BOU SAID" located at Station TGM "SIDI BOU SAID", Site archeologique de Carthage. This top-rated destination is perfect for public transportation users. With a rating of 3.8, it's a must-visit spot for locals and tourists alike. For more details, visit their website at https://www.google.com/maps/place/Station+TGM+%22SIDI+BOU+SAID%22/data=!4m7!3m6!1s0x12e2b4991027535b:0x51a3b0b41458b5e0!8m2!3d36.8705403!4d10.3420722!16s%2Fg%2F1tggkw7c!19sChIJW1MnEJm04hIR4LVYFLSwo1E?authuser=0&amp;hl=fr&amp;rclk=1 or call them at the provided phone number.</t>
+          <t>Station TGM "SIDI BOU SAID" is a subway station located in Carthage, Tunisia, at coordinates (36.856104, 10.3249089). It offers subway services and has received a rating of 3.8 based on 9 reviews.</t>
         </is>
       </c>
     </row>
@@ -19881,7 +19762,7 @@
       </c>
       <c r="Y192" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out Carthage Presidence located at Carthage Presidence, Site archeologique de Carthage. This top-rated destination is perfect for Gare lovers. With a rating of 3.7, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Carthage+Pr%C3%A9sidence/data=!4m7!3m6!1s0x12e2b4bb9038bc67:0xa9eb77531e15144a!8m2!3d36.8616659!4d10.3349402!16s%2Fg%2F1tqvx8vn!19sChIJZ7w4kLu04hIRShQVHlN366k?authuser=0&amp;hl=fr&amp;rclk=1 or call them at</t>
+          <t>Carthage Presidence is a railway station in Carthage, Tunisia, located at the coordinates (36.856104, 10.3249089). It has a rating of 3.7 based on 9 reviews and is categorized as a train station. Despite its name, no description is provided; however, it features an image at https://lh5.googleusercontent.com/p/AF1QipOdlmbRGGoCYo_p6T9_3o1zbwCk2ppfO6qW7aj2=w408-h543-k-no.</t>
         </is>
       </c>
     </row>
@@ -19976,7 +19857,7 @@
       </c>
       <c r="Y193" t="inlineStr">
         <is>
-          <t>If you're in carthage, the Carthage Amilcar located at Rue du Maroc, Carthage is a must-visit spot. This top-rated destination is perfect for Compagnie ferroviaire metropolitaine lovers and offers a range of Compagnie ferroviaire metropolitaine to choose from. With a rating of 3.9, it's a must-visit spot. To get there, use these GPS coordinates: 36.854094987202, 10.310224122512. For more details, visit their website at https://www.google.com/maps/place/Carthage+Amilcar/data=!4m7!3m6!1s0x12e2b506afac29bf:0x3d075dad89caae71!8m2!3d36.8666945!4d10.3376139!16s%2Fg%2F11p5dj14b6!19sChIJvymsrwa14hIRca7Kia1dBz0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Carthage Amilcar is a train station located in Carthage, Tunisia. It is part of the Tunis Metro Line 1. The station is named after the Carthaginian general, Hamilcar Barca. Carthage Amilcar is situated in the heart of the city, close to the Carthage ruins and the Salammbô archaeological site. The station is a convenient starting point for exploring the city's historical and cultural landmarks.</t>
         </is>
       </c>
     </row>
@@ -20071,7 +19952,7 @@
       </c>
       <c r="Y194" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for something fun to do, check out Station TGM Sidi Dhrif located at Station TGM Sidi Dhrif, Site archeologique de Carthage. This top-rated destination is perfect for Station de metro lovers. With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 36.856104, 10.3249089. For more details, visit their website at https://www.google.com/maps/place/Station+TGM+Sidi+Dhrif/data=!4m7!3m6!1s0x12e2b49a601e5d43:0x6ecda46773ce7245!8m2!3d36.8752759!4d10.3398943!16s%2Fg%2F1hc0_07s2!19sChIJQ10eYJq04hIRRXLOc2ekzW4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Station TGM Sidi Dhrif, a metro station located in Sidi Dhrif, Carthage, Tunisia. Situated at the coordinates of (36.856104, 10.3249089), it offers convenient access to the metro system for commuters and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -20166,9 +20047,7 @@
       </c>
       <c r="Y195" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for a place to catch a bus, check out Terminus 52 Carthage Presidence located at Rte de La Goulette. 
-This top-rated destination is perfect for bus lovers and offers a range of bus services to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8592498, 10.3345661.</t>
+          <t>Terminus 52 Carthage Presidence is a bus stop located in Carthage, Tunisia.</t>
         </is>
       </c>
     </row>
@@ -20263,10 +20142,7 @@
       </c>
       <c r="Y196" t="inlineStr">
         <is>
-          <t>If you're in Carthage and looking for something related to transportation, check out Station de Taxis Collectif (Carthage). 
-This top-rated destination is perfect for Station de taxis lovers. 
-With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 36.86108, 10.33161. 
-For more details, visit their website at https://www.google.com/maps/place/Station+de+Taxis+Collectif+%28Carthage%29/data=!4m7!3m6!1s0x12fd35821dbfa701:0x194ebb938d231652!8m2!3d36.791996!4d10.182868!16s%2Fg%2F11t6bxh6_q!19sChIJAae_HYI1_RIRUhYjjZO7Thk?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Station de Taxis Collectif (Carthage) is located in Carthage, Tunisia, at the coordinates (36.86108, 10.33161). It offers taxi services and is highly rated with 4.7 stars out of 5.</t>
         </is>
       </c>
     </row>
@@ -20361,7 +20237,7 @@
       </c>
       <c r="Y197" t="inlineStr">
         <is>
-          <t>If you're in Carthage and want to access transport, check out mHT@ nql jm`y@ nHw bn `rws lmdyn@ ljdyd@ bwmhl Hmm lnf l'nf located at mHT@ nql jm`y@ nHw bn `rws lmdyn@ ljdyd@ bwmhl Hmm lnf l'nf, Ndeg32 Rue d'Italie angle, 1000 Ave De Carthage, Tunis 1000. This top-rated destination is perfect for Station de taxis lovers and offers a range of Station de taxis to choose from. With a rating of 2.5, it's a must-visit spot.</t>
+          <t>This taxi station is located in Carthage, Tunisia, at the intersection of Rue d'Italie and Avenue De Carthage. It offers taxi services to and from Carthage and the surrounding areas.</t>
         </is>
       </c>
     </row>
@@ -20460,7 +20336,7 @@
       </c>
       <c r="Y198" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a top-notch gas station, be sure to check out Pressing ecologique at Carthage Byrsa. This highly-rated destination is perfect for car maintenance lovers and offers a range of services to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-13:00, 14:00-19:00, but closed on sundays. To get there, use these GPS coordinates: 36.8504182, 10.3192792. For more details, visit their website or call them at 25505030.</t>
+          <t>Pressing Ecologique is a gas station located in Carthage Byrsa, Tunisia. It is open from Monday to Saturday from 8am to 1pm and from 2pm to 7pm. The station offers a variety of services, including fuel, car wash, and oil change. Pressing Ecologique also has a small convenience store where you can purchase snacks, drinks, and other items. The station is conveniently located near several major highways, making it easy to get to.</t>
         </is>
       </c>
     </row>
@@ -20563,7 +20439,7 @@
       </c>
       <c r="Y199" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a top-rated car washing spot, check out Lavage carthage byrsa located at 36 Av. Hedi Chaker, Site archeologique de Carthage 2016. With a rating of 5.0, it's a must-visit spot for car washing lovers. It's open during these hours: 08:00-18:00. To get there, use these GPS coordinates: 36.84892440068, 10.318371667675. For more details, visit their website at https://www.google.com/maps/place/Lavage+carthage+byrsa/data=!4m7!3m6!1s0x12e2b57331cf9089:0x1e871a75bab960fe!8m2!3d36.8489355!4d10.3182334!16s%2Fg%2F11v6b2vhdk!19sChIJiZDPMXO14hIR_mC5unUahx4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 28 648 300.</t>
+          <t>Discover "Lavage carthage byrsa", a top-rated car wash in Carthage, Tunisia. Located along 36 Av. Hedi Chaker, it offers premium car cleaning services.</t>
         </is>
       </c>
     </row>
@@ -20658,7 +20534,7 @@
       </c>
       <c r="Y200" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for something fun to do, check out Carthage Hannibal located at Carthage Hannibal, Site archeologique de Carthage. This top-rated destination is perfect for Gare lovers with a rating of 3.8. To get there, use these GPS coordinates: 36.856104, 10.3249089.</t>
+          <t>Carthage Hannibal is an ancient site with historical significance in Carthage, Tunisia. Located at coordinates (36.856104, 10.3249089), it offers a glimpse into the rich past of the region. Carthage Hannibal is accessible via Google Maps and has received a 3.8 rating based on reviews from visitors.</t>
         </is>
       </c>
     </row>
@@ -20753,7 +20629,7 @@
       </c>
       <c r="Y201" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a top-rated Station de metro, check out Station TGM "SIDI BOU SAID". Located at Station TGM "SIDI BOU SAID", Site archeologique de Carthage, it has a rating of 3.8. It's open during these hours: , but closed on . To get there, use these GPS coordinates: 36.856104, 10.3249089. For more details, visit their website at  or call them at .</t>
+          <t>Station TGM "SIDI BOU SAID" is a 3.8-rated metro station with 9 reviews. It's located at the archaeological site of Carthage, making it a convenient option for those exploring the ancient ruins.</t>
         </is>
       </c>
     </row>
@@ -20848,7 +20724,7 @@
       </c>
       <c r="Y202" t="inlineStr">
         <is>
-          <t>Carthage Hannibal, located at Carthage Hannibal, Site archeologique de Carthage, is a must-visit spot for Gare enthusiasts in carthage. With a rating of 3.8 from 33 reviews, it offers a range of Gare options to choose from. Open during these hours: nan, but closed on nan, you can get there using the GPS coordinates: 36.856104, 10.3249089. For more information, call them at nan.</t>
+          <t>Carthage Hannibal is a train station in Carthage, Tunisia, offering rail services to and from various destinations. It is located at the following coordinates: (36.856104, 10.3249089).</t>
         </is>
       </c>
     </row>
@@ -20943,7 +20819,8 @@
       </c>
       <c r="Y203" t="inlineStr">
         <is>
-          <t>If you're in carthage and looking for a Station de taxis, check out mHT@ nql jm`y@ nHw bn `rws lmdyn@ ljdyd@ bwmhl Hmm lnf l'nf located at mHT@ nql jm`y@ nHw bn `rws lmdyn@ ljdyd@ bwmhl Hmm lnf l'nf, Ndeg32 Rue d'Italie angle, 1000 Ave De Carthage, Tunis 1000. This top-rated destination has a rating of 2.5, making it a must-visit spot. To get there, use these GPS coordinates: 36.791798419688, 10.182428513739.</t>
+          <t>**Station de taxis mHT@ nql jm`y@ nHw bn `rws lmdyn@ ljdyd@ bwmhl Hmm lnf l'nf**
+Cette station de taxis est située à l'angle de la Ndeg32 Rue d'Italie et de l'Ave De Carthage à Tunis. Elle propose des services de transport par taxi pour vous aider à vous déplacer facilement dans la ville.</t>
         </is>
       </c>
     </row>
